--- a/yong/미세먼지 측정소별 교통량.xlsx
+++ b/yong/미세먼지 측정소별 교통량.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>중구(서소문동)</t>
   </si>
@@ -943,6 +943,10 @@
   </si>
   <si>
     <t>강동구(천호1동)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통측정소 지점번호</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1871,7 +1875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1882,6 +1886,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2340,7 +2416,7 @@
   <dimension ref="C1:AG26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2351,7 +2427,10 @@
     <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:33">
+    <row r="1" spans="3:33">
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
       <c r="D1" t="s">
         <v>20</v>
       </c>
@@ -2443,7 +2522,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="4:33">
+    <row r="2" spans="3:33">
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2463,7 +2542,7 @@
         <v>1019.1428571428571</v>
       </c>
     </row>
-    <row r="3" spans="4:33">
+    <row r="3" spans="3:33">
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2483,7 +2562,7 @@
         <v>1607.7142857142858</v>
       </c>
     </row>
-    <row r="4" spans="4:33">
+    <row r="4" spans="3:33">
       <c r="D4" s="3" t="s">
         <v>116</v>
       </c>
@@ -2503,7 +2582,7 @@
         <v>1992.1428571428571</v>
       </c>
     </row>
-    <row r="5" spans="4:33">
+    <row r="5" spans="3:33">
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2523,7 +2602,7 @@
         <v>1992.1428571428571</v>
       </c>
     </row>
-    <row r="6" spans="4:33">
+    <row r="6" spans="3:33">
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
@@ -2536,8 +2615,14 @@
       <c r="G6" t="s">
         <v>49</v>
       </c>
+      <c r="H6" s="11">
+        <v>1118</v>
+      </c>
+      <c r="I6" s="12">
+        <v>816.28571428571433</v>
+      </c>
     </row>
-    <row r="7" spans="4:33">
+    <row r="7" spans="3:33">
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
@@ -2550,8 +2635,14 @@
       <c r="G7" t="s">
         <v>51</v>
       </c>
+      <c r="H7" s="13">
+        <v>4440.5714285714284</v>
+      </c>
+      <c r="I7" s="14">
+        <v>4758.7142857142853</v>
+      </c>
     </row>
-    <row r="8" spans="4:33">
+    <row r="8" spans="3:33">
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2564,8 +2655,14 @@
       <c r="G8" t="s">
         <v>52</v>
       </c>
+      <c r="H8" s="15">
+        <v>1543.8571428571429</v>
+      </c>
+      <c r="I8" s="16">
+        <v>1651.7142857142858</v>
+      </c>
     </row>
-    <row r="9" spans="4:33">
+    <row r="9" spans="3:33">
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2578,8 +2675,14 @@
       <c r="G9" t="s">
         <v>53</v>
       </c>
+      <c r="H9" s="17">
+        <v>2823.7142857142858</v>
+      </c>
+      <c r="I9" s="18">
+        <v>2878</v>
+      </c>
     </row>
-    <row r="10" spans="4:33">
+    <row r="10" spans="3:33">
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
@@ -2592,8 +2695,14 @@
       <c r="G10" t="s">
         <v>54</v>
       </c>
+      <c r="H10" s="19">
+        <v>417.14285714285717</v>
+      </c>
+      <c r="I10" s="20">
+        <v>446.42857142857144</v>
+      </c>
     </row>
-    <row r="11" spans="4:33">
+    <row r="11" spans="3:33">
       <c r="D11" s="3" t="s">
         <v>125</v>
       </c>
@@ -2606,8 +2715,14 @@
       <c r="G11" t="s">
         <v>55</v>
       </c>
+      <c r="H11" s="21">
+        <v>1716.7142857142858</v>
+      </c>
+      <c r="I11" s="22">
+        <v>1705</v>
+      </c>
     </row>
-    <row r="12" spans="4:33">
+    <row r="12" spans="3:33">
       <c r="D12" s="3" t="s">
         <v>127</v>
       </c>
@@ -2621,7 +2736,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="4:33">
+    <row r="13" spans="3:33">
       <c r="D13" s="3" t="s">
         <v>129</v>
       </c>
@@ -2634,8 +2749,17 @@
       <c r="G13" t="s">
         <v>57</v>
       </c>
+      <c r="H13" s="23">
+        <v>2149.8571428571427</v>
+      </c>
+      <c r="I13" s="24">
+        <v>1728.4285714285713</v>
+      </c>
     </row>
-    <row r="14" spans="4:33">
+    <row r="14" spans="3:33">
+      <c r="C14">
+        <v>91</v>
+      </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
@@ -2648,8 +2772,14 @@
       <c r="G14" t="s">
         <v>61</v>
       </c>
+      <c r="H14" s="25">
+        <v>1109.5714285714287</v>
+      </c>
+      <c r="I14" s="26">
+        <v>1322.8571428571429</v>
+      </c>
     </row>
-    <row r="15" spans="4:33">
+    <row r="15" spans="3:33">
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
@@ -2662,8 +2792,17 @@
       <c r="G15" t="s">
         <v>63</v>
       </c>
+      <c r="H15" s="27">
+        <v>1528.8571428571429</v>
+      </c>
+      <c r="I15" s="28">
+        <v>1407.5714285714287</v>
+      </c>
     </row>
-    <row r="16" spans="4:33">
+    <row r="16" spans="3:33">
+      <c r="C16">
+        <v>26</v>
+      </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
@@ -2676,8 +2815,17 @@
       <c r="G16" t="s">
         <v>65</v>
       </c>
+      <c r="H16" s="29">
+        <v>1436.6</v>
+      </c>
+      <c r="I16" s="30">
+        <v>1582.8571428571429</v>
+      </c>
     </row>
-    <row r="17" spans="4:7">
+    <row r="17" spans="3:9">
+      <c r="C17">
+        <v>30</v>
+      </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
@@ -2690,8 +2838,17 @@
       <c r="G17" t="s">
         <v>67</v>
       </c>
+      <c r="H17" s="31">
+        <v>1896.4285714285713</v>
+      </c>
+      <c r="I17" s="32">
+        <v>1306.2857142857142</v>
+      </c>
     </row>
-    <row r="18" spans="4:7">
+    <row r="18" spans="3:9">
+      <c r="C18">
+        <v>91</v>
+      </c>
       <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
@@ -2704,8 +2861,14 @@
       <c r="G18" t="s">
         <v>69</v>
       </c>
+      <c r="H18" s="33">
+        <v>1109.5714285714287</v>
+      </c>
+      <c r="I18" s="34">
+        <v>1322.8571428571429</v>
+      </c>
     </row>
-    <row r="19" spans="4:7">
+    <row r="19" spans="3:9">
       <c r="D19" s="3" t="s">
         <v>13</v>
       </c>
@@ -2719,7 +2882,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="4:7">
+    <row r="20" spans="3:9">
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
@@ -2733,7 +2896,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="4:7">
+    <row r="21" spans="3:9">
       <c r="D21" s="3" t="s">
         <v>15</v>
       </c>
@@ -2747,7 +2910,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="4:7">
+    <row r="22" spans="3:9">
       <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2761,7 +2924,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="4:7">
+    <row r="23" spans="3:9">
       <c r="D23" s="3" t="s">
         <v>17</v>
       </c>
@@ -2775,7 +2938,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="4:7">
+    <row r="24" spans="3:9">
       <c r="D24" s="3" t="s">
         <v>107</v>
       </c>
@@ -2789,7 +2952,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="4:7">
+    <row r="25" spans="3:9">
       <c r="D25" s="3" t="s">
         <v>18</v>
       </c>
@@ -2803,7 +2966,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="4:7">
+    <row r="26" spans="3:9">
       <c r="D26" s="3" t="s">
         <v>19</v>
       </c>
@@ -2847,5 +3010,6 @@
   <sheetData/>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/yong/미세먼지 측정소별 교통량.xlsx
+++ b/yong/미세먼지 측정소별 교통량.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="183">
   <si>
     <t>중구(서소문동)</t>
   </si>
@@ -229,9 +229,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>서울 강북구 삼양로 139길 49 우이동 주민센터</t>
-  </si>
-  <si>
     <t>서울 성북구 삼양로2길 70 길음2동 주민센터</t>
   </si>
   <si>
@@ -357,18 +354,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>대로명</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>서소문로,세종대로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>종로(동묘앞역)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -515,14 +500,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>종로(동대문역)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>진흥로,통일로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -650,34 +627,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>강변북로(망원1동-&gt;합정동)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>당산로,국회대로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>사당로, 남부순환로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">봉천로, 남부순환로 </t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>학동로,청담공원 앞 사거리,영동대로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>금하로, 시흥대로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상암로, 양재대로, 천호대로 </t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>도로명 주소</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -689,59 +638,27 @@
     <t>37.647935765744876, 127.01187220236272</t>
   </si>
   <si>
-    <t>4.19로,삼양로,인수봉로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>37.60688349214419, 127.02730959871882</t>
   </si>
   <si>
-    <t>동소문로,종암로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>37.54013536620098, 127.00484900945126</t>
   </si>
   <si>
-    <t>삼일대로,한남대로,이태원로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>37.547326306912424, 127.0925027718788</t>
   </si>
   <si>
-    <t>천호대로(구의동)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>37.5423113021354, 127.04962112495528</t>
   </si>
   <si>
-    <t>성수일로, 아차산로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>37.65433144512964, 127.02898979796872</t>
   </si>
   <si>
-    <t>시루봉로, 도봉로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>37.593848534171975, 126.9497296425027</t>
   </si>
   <si>
-    <t>세검정로, 내부순환도로, 통일로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>37.498536161898954, 126.89011889796548</t>
   </si>
   <si>
-    <t>가마산로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2008유입</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -849,17 +766,9 @@
     <t>37.50471690704273, 126.9944439894718</t>
   </si>
   <si>
-    <t>신반포로,반포대로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>37.54467067412767, 126.83542678964032</t>
   </si>
   <si>
-    <t>강서로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>37.502913388659714, 127.09248351145995</t>
   </si>
   <si>
@@ -867,41 +776,22 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>백제고분로,삼전로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>37.52597377493448, 126.85659566363469</t>
   </si>
   <si>
-    <t xml:space="preserve">오목로,신정중앙로 </t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>37.65746672104241, 127.06786606733485</t>
   </si>
   <si>
-    <t xml:space="preserve">상계로, 노원로 </t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>37.56443312218745, 126.97558359626409</t>
   </si>
   <si>
     <t>37.57220345748283, 127.00495385379092</t>
   </si>
   <si>
-    <t>37.58507202929658, 127.09392112495595</t>
-  </si>
-  <si>
     <t>중랑구(면목동,면목본동)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>왕산로,무학로,천호대로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>37.576212862940906, 127.02900783185828</t>
   </si>
   <si>
@@ -942,10 +832,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>교통측정소 지점번호</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>미세먼지 측정소 명</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -1061,87 +947,276 @@
     <t>북한산</t>
   </si>
   <si>
+    <t>세곡</t>
+  </si>
+  <si>
+    <t>강남구 밤고개로 337 (세곡사거리)</t>
+  </si>
+  <si>
+    <t>37.48195921030677, 127.0359451956356</t>
+  </si>
+  <si>
+    <t>37.539005971269816, 127.0416341557477</t>
+  </si>
+  <si>
+    <t>37.56206562211492, 126.82688507442488</t>
+  </si>
+  <si>
+    <t>37.51650543253519, 127.02021182327523</t>
+  </si>
+  <si>
+    <t>37.4866075437991, 126.98188035577397</t>
+  </si>
+  <si>
+    <t>금천구 독산동 996-9</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.4751430594987, 126.89863191161255</t>
+  </si>
+  <si>
+    <t>37.55605397290101, 126.93701771757537</t>
+  </si>
+  <si>
+    <t>37.519380225164824, 126.904628812047</t>
+  </si>
+  <si>
+    <t>37.603742627331705, 127.02599833223333</t>
+  </si>
+  <si>
+    <t>37.57152389455453, 126.99567214638721</t>
+  </si>
+  <si>
+    <t>37.53414847626643, 127.13931602870262</t>
+  </si>
+  <si>
+    <t>37.56883178559789, 126.99808236743618</t>
+  </si>
+  <si>
+    <t>37.549277133542354, 126.97043361161408</t>
+  </si>
+  <si>
+    <t>37.58053831772776, 127.04444305743175</t>
+  </si>
+  <si>
+    <t>37.61781726545141, 127.07509573960363</t>
+  </si>
+  <si>
+    <t>37.44331470968937, 126.9671007388262</t>
+  </si>
+  <si>
+    <t>37.49868518238417, 126.83032172880517</t>
+  </si>
+  <si>
+    <t>37.551339498038715, 126.98828024229921</t>
+  </si>
+  <si>
+    <t>37.679247431630145, 127.00235103320048</t>
+  </si>
+  <si>
+    <t>37.46425750759732, 127.10890988277653</t>
+  </si>
+  <si>
+    <t>2008합</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>강북구 삼양로 181길 387 (우이령 전경대 위)</t>
-  </si>
-  <si>
-    <t>세곡</t>
-  </si>
-  <si>
-    <t>강남구 밤고개로 337 (세곡사거리)</t>
-  </si>
-  <si>
-    <t>37.48195921030677, 127.0359451956356</t>
-  </si>
-  <si>
-    <t>37.539005971269816, 127.0416341557477</t>
-  </si>
-  <si>
-    <t>37.56206562211492, 126.82688507442488</t>
-  </si>
-  <si>
-    <t>37.51650543253519, 127.02021182327523</t>
-  </si>
-  <si>
-    <t>37.4866075437991, 126.98188035577397</t>
-  </si>
-  <si>
-    <t>금천구 독산동 996-9</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.4751430594987, 126.89863191161255</t>
-  </si>
-  <si>
-    <t>37.55605397290101, 126.93701771757537</t>
-  </si>
-  <si>
-    <t>37.519380225164824, 126.904628812047</t>
-  </si>
-  <si>
-    <t>37.603742627331705, 127.02599833223333</t>
-  </si>
-  <si>
-    <t>37.57152389455453, 126.99567214638721</t>
-  </si>
-  <si>
-    <t>37.53414847626643, 127.13931602870262</t>
-  </si>
-  <si>
-    <t>37.56883178559789, 126.99808236743618</t>
-  </si>
-  <si>
-    <t>37.549277133542354, 126.97043361161408</t>
-  </si>
-  <si>
-    <t>37.58053831772776, 127.04444305743175</t>
-  </si>
-  <si>
-    <t>37.61781726545141, 127.07509573960363</t>
-  </si>
-  <si>
-    <t>37.44331470968937, 126.9671007388262</t>
-  </si>
-  <si>
-    <t>37.49868518238417, 126.83032172880517</t>
-  </si>
-  <si>
-    <t>37.551339498038715, 126.98828024229921</t>
-  </si>
-  <si>
-    <t>37.679247431630145, 127.00235103320048</t>
-  </si>
-  <si>
-    <t>37.46425750759732, 127.10890988277653</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.58510354165147, 127.09396925384974</t>
+  </si>
+  <si>
+    <t>교통측정소 명</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>서소문(삼성건설 앞)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>종로3가</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴계로입구</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>양화대교</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>여의2교(파천교)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙성대역</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>문성터널 24번</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합운동장(올림픽로) 88번</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>천호대교 27번</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서울</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강북구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삼양로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 139</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 49 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주민센터</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>창동전화국 91</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>상월파출소 85</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>남산1호터널 26</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 잠실대교북단 30</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>미미예식장,구기터널 93</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>시흥 i.c 45</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>반포대교 36</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>화곡터널 104</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="###,###"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1345,6 +1420,21 @@
       <name val="나눔고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1674,7 +1764,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="132">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2071,8 +2161,11 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2083,18 +2176,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2187,8 +2268,167 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="10" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="10" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="10" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="10" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="11" xfId="125" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="11" xfId="125" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="132">
+  <cellStyles count="133">
     <cellStyle name="20% - 강조색1 2" xfId="2"/>
     <cellStyle name="20% - 강조색1 3" xfId="3"/>
     <cellStyle name="20% - 강조색1 4" xfId="4"/>
@@ -2318,6 +2558,7 @@
     <cellStyle name="표준 2" xfId="125"/>
     <cellStyle name="표준 2 2" xfId="126"/>
     <cellStyle name="표준 3" xfId="127"/>
+    <cellStyle name="표준 3 2" xfId="132"/>
     <cellStyle name="표준 4" xfId="128"/>
     <cellStyle name="표준 5" xfId="1"/>
     <cellStyle name="표준 6" xfId="129"/>
@@ -2621,8 +2862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2631,165 +2872,184 @@
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:33">
       <c r="C1" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AD1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AE1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AF1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AG1" t="s">
         <v>79</v>
       </c>
-      <c r="M1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" t="s">
-        <v>89</v>
-      </c>
-      <c r="W1" t="s">
-        <v>90</v>
-      </c>
-      <c r="X1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="2" spans="3:33">
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4">
+        <v>86</v>
+      </c>
+      <c r="G2" s="4">
         <v>1710.8</v>
       </c>
-      <c r="I2" s="2">
+      <c r="H2" s="2">
         <v>1019.1428571428571</v>
       </c>
+      <c r="I2" s="34">
+        <f>SUM(G2,H2)</f>
+        <v>2729.9428571428571</v>
+      </c>
+      <c r="J2">
+        <v>1548</v>
+      </c>
+      <c r="K2" s="53">
+        <v>751</v>
+      </c>
     </row>
     <row r="3" spans="3:33">
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="7">
+        <v>87</v>
+      </c>
+      <c r="G3" s="7">
         <v>1643.2857142857142</v>
       </c>
-      <c r="I3" s="8">
+      <c r="H3" s="8">
         <v>1607.7142857142858</v>
+      </c>
+      <c r="I3" s="34">
+        <f t="shared" ref="I3:I46" si="0">SUM(G3,H3)</f>
+        <v>3251</v>
+      </c>
+      <c r="J3">
+        <v>1577</v>
+      </c>
+      <c r="K3" s="53">
+        <v>1582</v>
       </c>
     </row>
     <row r="4" spans="3:33">
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1282.8571428571429</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1992.1428571428571</v>
+        <v>163</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="3:33">
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2797,19 +3057,29 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="9">
+        <v>89</v>
+      </c>
+      <c r="G5" s="9">
         <v>1282.8571428571429</v>
       </c>
-      <c r="I5" s="10">
+      <c r="H5" s="10">
         <v>1992.1428571428571</v>
       </c>
+      <c r="I5" s="34">
+        <f t="shared" si="0"/>
+        <v>3275</v>
+      </c>
+      <c r="J5">
+        <v>1464</v>
+      </c>
+      <c r="K5" s="53">
+        <v>1395</v>
+      </c>
     </row>
     <row r="6" spans="3:33">
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,39 +3087,59 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="11">
+        <v>90</v>
+      </c>
+      <c r="G6" s="11">
         <v>1118</v>
       </c>
-      <c r="I6" s="12">
+      <c r="H6" s="12">
         <v>816.28571428571433</v>
       </c>
+      <c r="I6" s="34">
+        <f t="shared" si="0"/>
+        <v>1934.2857142857142</v>
+      </c>
+      <c r="J6">
+        <v>1926</v>
+      </c>
+      <c r="K6" s="71">
+        <v>1952</v>
+      </c>
     </row>
     <row r="7" spans="3:33">
+      <c r="C7" t="s">
+        <v>168</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="13">
-        <v>4440.5714285714284</v>
-      </c>
-      <c r="I7" s="14">
-        <v>4758.7142857142853</v>
+        <v>91</v>
+      </c>
+      <c r="G7" s="79">
+        <v>2827.5714285714284</v>
+      </c>
+      <c r="H7" s="80">
+        <v>2693.2857142857142</v>
+      </c>
+      <c r="I7" s="34">
+        <f t="shared" si="0"/>
+        <v>5520.8571428571431</v>
+      </c>
+      <c r="J7">
+        <v>2840</v>
+      </c>
+      <c r="K7" s="71">
+        <v>2765</v>
       </c>
     </row>
     <row r="8" spans="3:33">
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2857,19 +3147,29 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="15">
+        <v>92</v>
+      </c>
+      <c r="G8" s="13">
         <v>1543.8571428571429</v>
       </c>
-      <c r="I8" s="16">
+      <c r="H8" s="14">
         <v>1651.7142857142858</v>
       </c>
+      <c r="I8" s="34">
+        <f t="shared" si="0"/>
+        <v>3195.5714285714284</v>
+      </c>
+      <c r="J8" s="53">
+        <v>1537</v>
+      </c>
+      <c r="K8" s="71">
+        <v>1634</v>
+      </c>
     </row>
     <row r="9" spans="3:33">
+      <c r="C9" t="s">
+        <v>170</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2877,19 +3177,29 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="17">
+        <v>93</v>
+      </c>
+      <c r="G9" s="15">
         <v>2823.7142857142858</v>
       </c>
-      <c r="I9" s="18">
+      <c r="H9" s="16">
         <v>2878</v>
       </c>
+      <c r="I9" s="34">
+        <f t="shared" si="0"/>
+        <v>5701.7142857142862</v>
+      </c>
+      <c r="J9">
+        <v>2682</v>
+      </c>
+      <c r="K9" s="71">
+        <v>2856</v>
+      </c>
     </row>
     <row r="10" spans="3:33">
+      <c r="C10" t="s">
+        <v>171</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
@@ -2897,519 +3207,825 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="19">
+        <v>94</v>
+      </c>
+      <c r="G10" s="17">
         <v>417.14285714285717</v>
       </c>
-      <c r="I10" s="20">
+      <c r="H10" s="18">
         <v>446.42857142857144</v>
       </c>
+      <c r="I10" s="34">
+        <f t="shared" si="0"/>
+        <v>863.57142857142867</v>
+      </c>
+      <c r="J10">
+        <v>428</v>
+      </c>
+      <c r="K10" s="71">
+        <v>437</v>
+      </c>
     </row>
     <row r="11" spans="3:33">
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="21">
+        <v>95</v>
+      </c>
+      <c r="G11" s="19">
         <v>1716.7142857142858</v>
       </c>
-      <c r="I11" s="22">
+      <c r="H11" s="20">
         <v>1705</v>
+      </c>
+      <c r="I11" s="34">
+        <f t="shared" si="0"/>
+        <v>3421.7142857142858</v>
+      </c>
+      <c r="J11">
+        <v>1414</v>
+      </c>
+      <c r="K11" s="71">
+        <v>1485</v>
       </c>
     </row>
     <row r="12" spans="3:33">
       <c r="D12" s="3" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
+        <v>97</v>
+      </c>
+      <c r="I12" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:33">
+      <c r="C13" t="s">
+        <v>173</v>
+      </c>
       <c r="D13" s="3" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="23">
+        <v>99</v>
+      </c>
+      <c r="G13" s="21">
         <v>2149.8571428571427</v>
       </c>
-      <c r="I13" s="24">
+      <c r="H13" s="22">
         <v>1728.4285714285713</v>
       </c>
+      <c r="I13" s="34">
+        <f t="shared" si="0"/>
+        <v>3878.2857142857138</v>
+      </c>
+      <c r="J13">
+        <v>2472</v>
+      </c>
+      <c r="K13" s="71">
+        <v>1745</v>
+      </c>
     </row>
     <row r="14" spans="3:33">
-      <c r="C14">
-        <v>91</v>
+      <c r="C14" t="s">
+        <v>175</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="25">
+        <v>46</v>
+      </c>
+      <c r="G14" s="23">
         <v>1109.5714285714287</v>
       </c>
-      <c r="I14" s="26">
+      <c r="H14" s="24">
         <v>1322.8571428571429</v>
       </c>
+      <c r="I14" s="34">
+        <f t="shared" si="0"/>
+        <v>2432.4285714285716</v>
+      </c>
     </row>
     <row r="15" spans="3:33">
+      <c r="C15" t="s">
+        <v>176</v>
+      </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="27">
-        <v>1528.8571428571429</v>
-      </c>
-      <c r="I15" s="28">
-        <v>1407.5714285714287</v>
+        <v>47</v>
+      </c>
+      <c r="G15" s="81">
+        <v>1866.1428571428571</v>
+      </c>
+      <c r="H15" s="82">
+        <v>1745.4285714285713</v>
+      </c>
+      <c r="I15" s="34">
+        <f t="shared" si="0"/>
+        <v>3611.5714285714284</v>
+      </c>
+      <c r="J15">
+        <v>1862</v>
+      </c>
+      <c r="K15">
+        <v>1711</v>
       </c>
     </row>
     <row r="16" spans="3:33">
-      <c r="C16">
-        <v>26</v>
+      <c r="C16" t="s">
+        <v>177</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="29">
-        <v>1436.6</v>
-      </c>
-      <c r="I16" s="30">
+        <v>48</v>
+      </c>
+      <c r="G16" s="25">
+        <v>1417</v>
+      </c>
+      <c r="H16" s="26">
         <v>1582.8571428571429</v>
       </c>
-    </row>
-    <row r="17" spans="3:9">
-      <c r="C17">
-        <v>30</v>
+      <c r="I16" s="34">
+        <f t="shared" si="0"/>
+        <v>2999.8571428571431</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" t="s">
+        <v>178</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="31">
+        <v>49</v>
+      </c>
+      <c r="G17" s="27">
         <v>1896.4285714285713</v>
       </c>
-      <c r="I17" s="32">
+      <c r="H17" s="28">
         <v>1306.2857142857142</v>
       </c>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="C18">
-        <v>91</v>
-      </c>
+      <c r="I17" s="34">
+        <f t="shared" si="0"/>
+        <v>3202.7142857142853</v>
+      </c>
+      <c r="J17">
+        <v>1958</v>
+      </c>
+      <c r="K17">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
       <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="33">
-        <v>1109.5714285714287</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="34">
-        <v>1322.8571428571429</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9">
+        <v>51</v>
+      </c>
+      <c r="G19" s="35">
+        <v>1109.5714285714287</v>
+      </c>
+      <c r="H19" s="36">
+        <v>1322.8571428571429</v>
+      </c>
+      <c r="I19" s="34">
+        <f t="shared" si="0"/>
+        <v>2432.4285714285716</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" t="s">
+        <v>179</v>
+      </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9">
+        <v>52</v>
+      </c>
+      <c r="G20" s="38">
+        <v>2015.8571428571429</v>
+      </c>
+      <c r="H20" s="37">
+        <v>2027.5714285714287</v>
+      </c>
+      <c r="I20" s="34">
+        <f t="shared" si="0"/>
+        <v>4043.4285714285716</v>
+      </c>
+      <c r="J20">
+        <v>1926</v>
+      </c>
+      <c r="K20" s="71">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
       <c r="D21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9">
+        <v>53</v>
+      </c>
+      <c r="G21" s="40">
+        <v>2074.4285714285702</v>
+      </c>
+      <c r="H21" s="39">
+        <v>2251.7142857142858</v>
+      </c>
+      <c r="I21" s="34">
+        <f t="shared" si="0"/>
+        <v>4326.142857142856</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22" t="s">
+        <v>181</v>
+      </c>
       <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9">
+        <v>80</v>
+      </c>
+      <c r="G22" s="42">
+        <v>1654.1428571428571</v>
+      </c>
+      <c r="H22" s="41">
+        <v>2019</v>
+      </c>
+      <c r="I22" s="34">
+        <f t="shared" si="0"/>
+        <v>3673.1428571428569</v>
+      </c>
+      <c r="J22">
+        <v>1954</v>
+      </c>
+      <c r="K22">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" t="s">
+        <v>182</v>
+      </c>
       <c r="D23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="84">
+        <v>1123.7142857142858</v>
+      </c>
+      <c r="H23" s="83">
+        <v>922.28571428571433</v>
+      </c>
+      <c r="I23" s="34">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="J23" s="85">
+        <v>1109</v>
+      </c>
+      <c r="K23" s="86">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="D24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9">
-      <c r="D24" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F24" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9">
+        <v>82</v>
+      </c>
+      <c r="G24" s="44">
+        <v>5161.5714285714284</v>
+      </c>
+      <c r="H24" s="43">
+        <v>5003.1428571428569</v>
+      </c>
+      <c r="I24" s="34">
+        <f t="shared" si="0"/>
+        <v>10164.714285714286</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
       <c r="D25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9">
+        <v>84</v>
+      </c>
+      <c r="G25" s="46">
+        <v>1377.2857142857142</v>
+      </c>
+      <c r="H25" s="45">
+        <v>1434.1428571428571</v>
+      </c>
+      <c r="I25" s="34">
+        <f t="shared" si="0"/>
+        <v>2811.4285714285716</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
       <c r="D26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="48">
+        <v>1785.2857142857142</v>
+      </c>
+      <c r="H26" s="47">
+        <v>2487.5714285714284</v>
+      </c>
+      <c r="I26" s="34">
+        <f t="shared" si="0"/>
+        <v>4272.8571428571431</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="D27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="D28" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="D29" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="50">
+        <v>1624.7142857142858</v>
+      </c>
+      <c r="H29" s="49">
+        <v>1706.8571428571429</v>
+      </c>
+      <c r="I29" s="34">
+        <f t="shared" si="0"/>
+        <v>3331.5714285714284</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="D30" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="D31" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="52">
+        <v>1976.2857142857142</v>
+      </c>
+      <c r="H31" s="51">
+        <v>1905.1428571428571</v>
+      </c>
+      <c r="I31" s="34">
+        <f t="shared" si="0"/>
+        <v>3881.4285714285716</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="D32" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="G26" t="s">
+      <c r="E32" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="55">
+        <v>2074.4285714285716</v>
+      </c>
+      <c r="H32" s="54">
+        <v>2251.7142857142858</v>
+      </c>
+      <c r="I32" s="34">
+        <f t="shared" si="0"/>
+        <v>4326.1428571428569</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9">
+      <c r="D33" s="32" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="3:9">
-      <c r="D27" s="3" t="s">
+      <c r="E33" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="56">
+        <v>1486.8571428571429</v>
+      </c>
+      <c r="H33" s="57">
+        <v>1159.7142857142858</v>
+      </c>
+      <c r="I33" s="34">
+        <f t="shared" si="0"/>
+        <v>2646.5714285714284</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9">
+      <c r="D34" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="59">
+        <v>1543.8571428571429</v>
+      </c>
+      <c r="H34" s="58">
+        <v>1651.7142857142858</v>
+      </c>
+      <c r="I34" s="34">
+        <f t="shared" si="0"/>
+        <v>3195.5714285714284</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9">
+      <c r="D35" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="61">
+        <v>892.14285714285711</v>
+      </c>
+      <c r="H35" s="60">
+        <v>669.57142857142856</v>
+      </c>
+      <c r="I35" s="34">
+        <f t="shared" si="0"/>
+        <v>1561.7142857142858</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9">
+      <c r="D36" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="62">
+        <v>1643.2857142857142</v>
+      </c>
+      <c r="H36" s="63">
+        <v>1607.7142857142858</v>
+      </c>
+      <c r="I36" s="34">
+        <f t="shared" si="0"/>
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9">
+      <c r="D37" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="65">
+        <v>2149.8571428571427</v>
+      </c>
+      <c r="H37" s="64">
+        <v>1728.4285714285713</v>
+      </c>
+      <c r="I37" s="34">
+        <f t="shared" si="0"/>
+        <v>3878.2857142857138</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9">
+      <c r="D38" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" s="65">
+        <v>1643.2857142857142</v>
+      </c>
+      <c r="H38" s="65">
+        <v>1607.7142857142858</v>
+      </c>
+      <c r="I38" s="34">
+        <f t="shared" ref="I38" si="1">SUM(G38,H38)</f>
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9">
+      <c r="D39" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" t="s">
+        <v>153</v>
+      </c>
+      <c r="I39" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9">
+      <c r="D40" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" s="67">
+        <v>1282.8571428571429</v>
+      </c>
+      <c r="H40" s="66">
+        <v>1992.1428571428571</v>
+      </c>
+      <c r="I40" s="34">
+        <f t="shared" si="0"/>
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9">
+      <c r="D41" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="70">
+        <v>927.14285714285711</v>
+      </c>
+      <c r="H41" s="68">
+        <v>937.57142857142856</v>
+      </c>
+      <c r="I41" s="34">
+        <f t="shared" si="0"/>
+        <v>1864.7142857142858</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9">
+      <c r="D42" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E42" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G42" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="H42" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="I42" s="34">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9">
+      <c r="D43" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="F27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9">
-      <c r="D28" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="35" t="s">
+      <c r="E43" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="F28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9">
-      <c r="D29" s="37" t="s">
+      <c r="F43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" s="72">
+        <v>1135.1428571428571</v>
+      </c>
+      <c r="H43" s="73">
+        <v>1348.8571428571429</v>
+      </c>
+      <c r="I43" s="34">
+        <f t="shared" si="0"/>
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9">
+      <c r="D44" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E44" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="F29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9">
-      <c r="D30" s="37" t="s">
+      <c r="F44" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="76">
+        <v>495.14285714285717</v>
+      </c>
+      <c r="H44" s="74">
+        <v>469.28571428571428</v>
+      </c>
+      <c r="I44" s="34">
+        <f t="shared" si="0"/>
+        <v>964.42857142857144</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9">
+      <c r="D45" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9">
-      <c r="D31" s="37" t="s">
+      <c r="E45" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F45" t="s">
+        <v>159</v>
+      </c>
+      <c r="G45" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="H45" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="I45" s="34">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9">
+      <c r="D46" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="E31" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9">
-      <c r="D32" s="37" t="s">
+      <c r="E46" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="F34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="D35" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6">
-      <c r="D36" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="F36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6">
-      <c r="D37" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="F37" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6">
-      <c r="D38" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="F38" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6">
-      <c r="D39" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="F39" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6">
-      <c r="D40" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="F40" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6">
-      <c r="D41" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="F41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6">
-      <c r="D42" s="37" t="s">
+      <c r="F46" t="s">
         <v>160</v>
       </c>
-      <c r="E42" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="F42" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6">
-      <c r="D43" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6">
-      <c r="D44" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6">
-      <c r="D45" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6">
-      <c r="D46" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="F46" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6">
-      <c r="D47" s="37"/>
-      <c r="E47" s="35"/>
+      <c r="G46" s="78">
+        <v>814.85714285714289</v>
+      </c>
+      <c r="H46" s="77">
+        <v>774.71428571428567</v>
+      </c>
+      <c r="I46" s="34">
+        <f t="shared" si="0"/>
+        <v>1589.5714285714284</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9">
+      <c r="D47" s="33"/>
+      <c r="E47" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>

--- a/yong/미세먼지 측정소별 교통량.xlsx
+++ b/yong/미세먼지 측정소별 교통량.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="205">
   <si>
     <t>중구(서소문동)</t>
   </si>
@@ -675,54 +675,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>2010유입</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010유출</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2011유입</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2011유출</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012유입</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>20112유출</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013유입</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013유출</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014유입</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014유출</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015유입</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015유출</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2016유입</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -901,9 +853,6 @@
     <t>마포구 노고산동 57-62 (신촌역 7번 출구)</t>
   </si>
   <si>
-    <t>영등포구 영중로 37(영등포사거리 하나은행 앞)</t>
-  </si>
-  <si>
     <t>성북구 돈암동 8-164(내부순환로 길음램프 출구) (최초설치 2010)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,9 +866,6 @@
     <t>중구 청계천로 184(청계천4가사거리 남강빌딩 앞)</t>
   </si>
   <si>
-    <t>용산구 한강대로 405(서울역 앞)</t>
-  </si>
-  <si>
     <t>동대문구 홍릉로 1(청량리전철역 사거리)</t>
   </si>
   <si>
@@ -953,9 +899,6 @@
     <t>강남구 밤고개로 337 (세곡사거리)</t>
   </si>
   <si>
-    <t>37.48195921030677, 127.0359451956356</t>
-  </si>
-  <si>
     <t>37.539005971269816, 127.0416341557477</t>
   </si>
   <si>
@@ -1026,10 +969,6 @@
   </si>
   <si>
     <t>37.58510354165147, 127.09396925384974</t>
-  </si>
-  <si>
-    <t>교통측정소 명</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>서소문(삼성건설 앞)</t>
@@ -1205,6 +1144,158 @@
   </si>
   <si>
     <t>화곡터널 104</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>장지&lt;-&gt;분당수도권고속도로  101</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>영등포로(오목교) 89</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일로시계 80</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.48195921030677, 127.0359451956356</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남대로</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>성수대교</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>오쇠리시계 57 (공항대로)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남대로(신사역)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>남태령고개 68</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>시흥ic 45</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>영등포구 영중로 37(영등포사거리 하나은행 앞)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>경인로(서울교)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>동소문로길(길음교사거리)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>종로3가 46</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>천호대교 27번</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>용산구 한강대로 405(서울역 앞)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>한강대교</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼육대입구 화랑로 79</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류ic 44</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>남산2호터널 18</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤고개로 or 헌릉로70</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>서소문(삼성건설 앞) 5</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴계로입구 8</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>양화대교 42</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>여의2교(파천교) 96</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015양방</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>중랑교 83</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>구기터널 21</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>경인로(서울교남단) 97</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>총신대입구 100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스코사거리 87</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>미미예식장 93</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>고속버스터미널 99</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>수서ic 49</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>총신대입구 100, 동작대로</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통측정소 명(2008~)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통측정소 명(2015~)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016양방</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -2165,7 +2256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2420,6 +2511,30 @@
     </xf>
     <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="11" xfId="125" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="11" xfId="125" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="11" xfId="125" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="11" xfId="125" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="11" xfId="125" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="11" xfId="125" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="11" xfId="125" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="26" fillId="0" borderId="11" xfId="125" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2860,26 +2975,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:AG47"/>
+  <dimension ref="C1:X47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.875" customWidth="1"/>
+    <col min="22" max="22" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:33">
+    <row r="1" spans="3:24">
       <c r="C1" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
         <v>44</v>
@@ -2894,7 +3011,7 @@
         <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="J1" t="s">
         <v>56</v>
@@ -2903,75 +3020,48 @@
         <v>57</v>
       </c>
       <c r="L1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>63</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>66</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>67</v>
       </c>
-      <c r="V1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="3:33">
+    </row>
+    <row r="2" spans="3:24">
       <c r="C2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -2980,7 +3070,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G2" s="4">
         <v>1710.8</v>
@@ -2998,10 +3088,17 @@
       <c r="K2" s="53">
         <v>751</v>
       </c>
-    </row>
-    <row r="3" spans="3:33">
+      <c r="L2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" s="87">
+        <v>54444</v>
+      </c>
+      <c r="N2" s="87"/>
+    </row>
+    <row r="3" spans="3:24">
       <c r="C3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
@@ -3010,7 +3107,7 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G3" s="7">
         <v>1643.2857142857142</v>
@@ -3028,16 +3125,22 @@
       <c r="K3" s="53">
         <v>1582</v>
       </c>
-    </row>
-    <row r="4" spans="3:33">
+      <c r="L3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="87">
+        <v>70234</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24">
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
@@ -3045,10 +3148,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="3:33">
+      <c r="L4" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" s="87">
+        <v>159656</v>
+      </c>
+    </row>
+    <row r="5" spans="3:24">
       <c r="C5" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -3057,7 +3166,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G5" s="9">
         <v>1282.8571428571429</v>
@@ -3075,10 +3184,16 @@
       <c r="K5" s="53">
         <v>1395</v>
       </c>
-    </row>
-    <row r="6" spans="3:33">
+      <c r="L5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" s="87">
+        <v>59469</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24">
       <c r="C6" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
@@ -3087,7 +3202,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G6" s="11">
         <v>1118</v>
@@ -3105,10 +3220,16 @@
       <c r="K6" s="71">
         <v>1952</v>
       </c>
-    </row>
-    <row r="7" spans="3:33">
+      <c r="L6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M6" s="87">
+        <v>46836</v>
+      </c>
+    </row>
+    <row r="7" spans="3:24">
       <c r="C7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
@@ -3117,7 +3238,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G7" s="79">
         <v>2827.5714285714284</v>
@@ -3135,10 +3256,16 @@
       <c r="K7" s="71">
         <v>2765</v>
       </c>
-    </row>
-    <row r="8" spans="3:33">
+      <c r="L7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="87">
+        <v>135991</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24">
       <c r="C8" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
@@ -3147,7 +3274,7 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G8" s="13">
         <v>1543.8571428571429</v>
@@ -3165,10 +3292,16 @@
       <c r="K8" s="71">
         <v>1634</v>
       </c>
-    </row>
-    <row r="9" spans="3:33">
+      <c r="L8" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="87">
+        <v>97458</v>
+      </c>
+    </row>
+    <row r="9" spans="3:24">
       <c r="C9" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
@@ -3177,7 +3310,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G9" s="15">
         <v>2823.7142857142858</v>
@@ -3195,10 +3328,16 @@
       <c r="K9" s="71">
         <v>2856</v>
       </c>
-    </row>
-    <row r="10" spans="3:33">
+      <c r="L9" t="s">
+        <v>196</v>
+      </c>
+      <c r="M9" s="87">
+        <v>84463</v>
+      </c>
+    </row>
+    <row r="10" spans="3:24">
       <c r="C10" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
@@ -3207,7 +3346,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G10" s="17">
         <v>417.14285714285717</v>
@@ -3225,19 +3364,25 @@
       <c r="K10" s="71">
         <v>437</v>
       </c>
-    </row>
-    <row r="11" spans="3:33">
+      <c r="L10" t="s">
+        <v>155</v>
+      </c>
+      <c r="M10" s="87">
+        <v>20779</v>
+      </c>
+    </row>
+    <row r="11" spans="3:24">
       <c r="C11" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G11" s="19">
         <v>1716.7142857142858</v>
@@ -3255,34 +3400,41 @@
       <c r="K11" s="71">
         <v>1485</v>
       </c>
-    </row>
-    <row r="12" spans="3:33">
+      <c r="L11" t="s">
+        <v>197</v>
+      </c>
+      <c r="M11" s="87">
+        <v>91286</v>
+      </c>
+    </row>
+    <row r="12" spans="3:24">
       <c r="D12" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I12" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="3:33">
+      <c r="M12" s="87"/>
+    </row>
+    <row r="13" spans="3:24">
       <c r="C13" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G13" s="21">
         <v>2149.8571428571427</v>
@@ -3300,16 +3452,22 @@
       <c r="K13" s="71">
         <v>1745</v>
       </c>
-    </row>
-    <row r="14" spans="3:33">
+      <c r="L13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M13" s="87">
+        <v>85560</v>
+      </c>
+    </row>
+    <row r="14" spans="3:24">
       <c r="C14" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
         <v>46</v>
@@ -3324,10 +3482,13 @@
         <f t="shared" si="0"/>
         <v>2432.4285714285716</v>
       </c>
-    </row>
-    <row r="15" spans="3:33">
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="3:24">
       <c r="C15" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
@@ -3354,10 +3515,16 @@
       <c r="K15">
         <v>1711</v>
       </c>
-    </row>
-    <row r="16" spans="3:33">
+      <c r="L15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" s="87">
+        <v>63133</v>
+      </c>
+    </row>
+    <row r="16" spans="3:24">
       <c r="C16" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
@@ -3378,10 +3545,16 @@
         <f t="shared" si="0"/>
         <v>2999.8571428571431</v>
       </c>
-    </row>
-    <row r="17" spans="3:11">
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" s="87">
+        <v>71537</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
       <c r="C17" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
@@ -3408,8 +3581,14 @@
       <c r="K17">
         <v>1306</v>
       </c>
-    </row>
-    <row r="18" spans="3:11">
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" s="87">
+        <v>75812</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
       <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
@@ -3426,9 +3605,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:11">
+    <row r="19" spans="3:13">
       <c r="C19" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -3449,10 +3628,13 @@
         <f t="shared" si="0"/>
         <v>2432.4285714285716</v>
       </c>
-    </row>
-    <row r="20" spans="3:11">
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
       <c r="C20" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
@@ -3479,10 +3661,16 @@
       <c r="K20" s="71">
         <v>1952</v>
       </c>
-    </row>
-    <row r="21" spans="3:11">
+      <c r="L20" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" s="87">
+        <v>71918</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
       <c r="C21" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>15</v>
@@ -3503,10 +3691,16 @@
         <f t="shared" si="0"/>
         <v>4326.142857142856</v>
       </c>
-    </row>
-    <row r="22" spans="3:11">
+      <c r="L21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" s="87">
+        <v>73006</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
       <c r="C22" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>16</v>
@@ -3515,7 +3709,7 @@
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G22" s="42">
         <v>1654.1428571428571</v>
@@ -3533,10 +3727,16 @@
       <c r="K22">
         <v>2199</v>
       </c>
-    </row>
-    <row r="23" spans="3:11">
+      <c r="L22" t="s">
+        <v>199</v>
+      </c>
+      <c r="M22" s="87">
+        <v>107837</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13">
       <c r="C23" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>17</v>
@@ -3545,7 +3745,7 @@
         <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G23" s="84">
         <v>1123.7142857142858</v>
@@ -3563,29 +3763,53 @@
       <c r="K23" s="86">
         <v>872</v>
       </c>
-    </row>
-    <row r="24" spans="3:11">
+      <c r="L23" t="s">
+        <v>166</v>
+      </c>
+      <c r="M23" s="87">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
       <c r="D24" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G24" s="44">
-        <v>5161.5714285714284</v>
+        <v>3252</v>
       </c>
       <c r="H24" s="43">
-        <v>5003.1428571428569</v>
+        <v>3515</v>
       </c>
       <c r="I24" s="34">
         <f t="shared" si="0"/>
-        <v>10164.714285714286</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11">
+        <v>6767</v>
+      </c>
+      <c r="J24">
+        <v>3247</v>
+      </c>
+      <c r="K24">
+        <v>3439</v>
+      </c>
+      <c r="L24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" s="87">
+        <v>81624</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
       <c r="D25" s="3" t="s">
         <v>18</v>
       </c>
@@ -3593,7 +3817,7 @@
         <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G25" s="46">
         <v>1377.2857142857142</v>
@@ -3605,8 +3829,23 @@
         <f t="shared" si="0"/>
         <v>2811.4285714285716</v>
       </c>
-    </row>
-    <row r="26" spans="3:11">
+      <c r="J25">
+        <v>1384</v>
+      </c>
+      <c r="K25">
+        <v>1449</v>
+      </c>
+      <c r="L25" t="s">
+        <v>168</v>
+      </c>
+      <c r="M25" s="87">
+        <v>65505</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
       </c>
@@ -3614,7 +3853,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G26" s="48">
         <v>1785.2857142857142</v>
@@ -3626,82 +3865,128 @@
         <f t="shared" si="0"/>
         <v>4272.8571428571431</v>
       </c>
-    </row>
-    <row r="27" spans="3:11">
+      <c r="L26" t="s">
+        <v>169</v>
+      </c>
+      <c r="M26" s="87">
+        <v>139393</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
       <c r="D27" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="I27" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11">
+      <c r="L27" t="s">
+        <v>171</v>
+      </c>
+      <c r="M27" s="87"/>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" t="s">
+        <v>172</v>
+      </c>
       <c r="D28" s="33" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="I28" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11">
+      <c r="L28" t="s">
+        <v>172</v>
+      </c>
+      <c r="M28" s="87">
+        <v>90991</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" t="s">
+        <v>173</v>
+      </c>
       <c r="D29" s="33" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G29" s="50">
-        <v>1624.7142857142858</v>
+        <v>812</v>
       </c>
       <c r="H29" s="49">
-        <v>1706.8571428571429</v>
+        <v>932</v>
       </c>
       <c r="I29" s="34">
         <f t="shared" si="0"/>
-        <v>3331.5714285714284</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11">
+        <v>1744</v>
+      </c>
+      <c r="J29">
+        <v>856</v>
+      </c>
+      <c r="K29">
+        <v>966</v>
+      </c>
+      <c r="L29" t="s">
+        <v>173</v>
+      </c>
+      <c r="M29" s="87">
+        <v>43368</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" t="s">
+        <v>174</v>
+      </c>
       <c r="D30" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="31" t="s">
-        <v>120</v>
-      </c>
       <c r="F30" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="I30" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11">
+      <c r="L30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="C31" t="s">
+        <v>175</v>
+      </c>
       <c r="D31" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="31" t="s">
-        <v>121</v>
-      </c>
       <c r="F31" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G31" s="52">
         <v>1976.2857142857142</v>
@@ -3713,16 +3998,31 @@
         <f t="shared" si="0"/>
         <v>3881.4285714285716</v>
       </c>
-    </row>
-    <row r="32" spans="3:11">
+      <c r="J31" s="88">
+        <v>1882</v>
+      </c>
+      <c r="K31" s="89">
+        <v>1841</v>
+      </c>
+      <c r="L31" t="s">
+        <v>201</v>
+      </c>
+      <c r="M31" s="87">
+        <v>84463</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="C32" t="s">
+        <v>176</v>
+      </c>
       <c r="D32" s="33" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="G32" s="55">
         <v>2074.4285714285716</v>
@@ -3734,37 +4034,42 @@
         <f t="shared" si="0"/>
         <v>4326.1428571428569</v>
       </c>
-    </row>
-    <row r="33" spans="4:9">
+      <c r="L32" t="s">
+        <v>176</v>
+      </c>
+      <c r="M32" s="87">
+        <v>73006</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13">
       <c r="D33" s="32" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F33" t="s">
-        <v>147</v>
-      </c>
-      <c r="G33" s="56">
-        <v>1486.8571428571429</v>
-      </c>
-      <c r="H33" s="57">
-        <v>1159.7142857142858</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G33" s="56"/>
+      <c r="H33" s="57"/>
       <c r="I33" s="34">
         <f t="shared" si="0"/>
-        <v>2646.5714285714284</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13">
+      <c r="C34" t="s">
+        <v>178</v>
+      </c>
       <c r="D34" s="33" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="G34" s="59">
         <v>1543.8571428571429</v>
@@ -3776,37 +4081,48 @@
         <f t="shared" si="0"/>
         <v>3195.5714285714284</v>
       </c>
-    </row>
-    <row r="35" spans="4:9">
+      <c r="L34" t="s">
+        <v>195</v>
+      </c>
+      <c r="M34" s="87">
+        <v>73402</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="C35" t="s">
+        <v>179</v>
+      </c>
       <c r="D35" s="33" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>149</v>
-      </c>
-      <c r="G35" s="61">
-        <v>892.14285714285711</v>
-      </c>
-      <c r="H35" s="60">
-        <v>669.57142857142856</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G35" s="61"/>
+      <c r="H35" s="60"/>
       <c r="I35" s="34">
         <f t="shared" si="0"/>
-        <v>1561.7142857142858</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="C36" t="s">
+        <v>180</v>
+      </c>
       <c r="D36" s="33" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G36" s="62">
         <v>1643.2857142857142</v>
@@ -3818,16 +4134,31 @@
         <f t="shared" si="0"/>
         <v>3251</v>
       </c>
-    </row>
-    <row r="37" spans="4:9">
+      <c r="J36" s="90">
+        <v>1577</v>
+      </c>
+      <c r="K36" s="91">
+        <v>1582</v>
+      </c>
+      <c r="L36" t="s">
+        <v>180</v>
+      </c>
+      <c r="M36" s="87">
+        <v>70234</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="C37" t="s">
+        <v>181</v>
+      </c>
       <c r="D37" s="33" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F37" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G37" s="65">
         <v>2149.8571428571427</v>
@@ -3839,16 +4170,31 @@
         <f t="shared" si="0"/>
         <v>3878.2857142857138</v>
       </c>
-    </row>
-    <row r="38" spans="4:9">
+      <c r="J37">
+        <v>2472</v>
+      </c>
+      <c r="K37" s="71">
+        <v>1745</v>
+      </c>
+      <c r="L37" t="s">
+        <v>181</v>
+      </c>
+      <c r="M37" s="87">
+        <v>85560</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" t="s">
+        <v>180</v>
+      </c>
       <c r="D38" s="33" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F38" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G38" s="65">
         <v>1643.2857142857142</v>
@@ -3860,52 +4206,72 @@
         <f t="shared" ref="I38" si="1">SUM(G38,H38)</f>
         <v>3251</v>
       </c>
-    </row>
-    <row r="39" spans="4:9">
+      <c r="J38" s="91">
+        <v>1577</v>
+      </c>
+      <c r="K38" s="91">
+        <v>1582</v>
+      </c>
+      <c r="L38" t="s">
+        <v>180</v>
+      </c>
+      <c r="M38" s="87">
+        <v>70234</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" t="s">
+        <v>183</v>
+      </c>
       <c r="D39" s="33" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="F39" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="I39" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="4:9">
+      <c r="L39" t="s">
+        <v>183</v>
+      </c>
+      <c r="M39" s="87">
+        <v>98621</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13">
       <c r="D40" s="33" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F40" t="s">
-        <v>154</v>
-      </c>
-      <c r="G40" s="67">
-        <v>1282.8571428571429</v>
-      </c>
-      <c r="H40" s="66">
-        <v>1992.1428571428571</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G40" s="67"/>
+      <c r="H40" s="66"/>
       <c r="I40" s="34">
         <f t="shared" si="0"/>
-        <v>3275</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="C41" t="s">
+        <v>184</v>
+      </c>
       <c r="D41" s="33" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F41" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G41" s="70">
         <v>927.14285714285711</v>
@@ -3917,16 +4283,22 @@
         <f t="shared" si="0"/>
         <v>1864.7142857142858</v>
       </c>
-    </row>
-    <row r="42" spans="4:9">
+      <c r="L41" t="s">
+        <v>184</v>
+      </c>
+      <c r="M41" s="87">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13">
       <c r="D42" s="33" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F42" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G42" s="69">
         <v>0.1</v>
@@ -3938,16 +4310,22 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="43" spans="4:9">
+      <c r="M42" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="C43" t="s">
+        <v>185</v>
+      </c>
       <c r="D43" s="33" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F43" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G43" s="72">
         <v>1135.1428571428571</v>
@@ -3959,16 +4337,31 @@
         <f t="shared" si="0"/>
         <v>2484</v>
       </c>
-    </row>
-    <row r="44" spans="4:9">
+      <c r="J43" s="92">
+        <v>1098</v>
+      </c>
+      <c r="K43" s="93">
+        <v>1367</v>
+      </c>
+      <c r="L43" t="s">
+        <v>185</v>
+      </c>
+      <c r="M43" s="87">
+        <v>55339</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="C44" t="s">
+        <v>186</v>
+      </c>
       <c r="D44" s="33" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F44" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G44" s="76">
         <v>495.14285714285717</v>
@@ -3980,16 +4373,28 @@
         <f t="shared" si="0"/>
         <v>964.42857142857144</v>
       </c>
-    </row>
-    <row r="45" spans="4:9">
+      <c r="J44" s="94">
+        <v>521</v>
+      </c>
+      <c r="K44">
+        <v>276</v>
+      </c>
+      <c r="L44" t="s">
+        <v>186</v>
+      </c>
+      <c r="M44" s="87">
+        <v>27283</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13">
       <c r="D45" s="33" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F45" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="G45" s="75">
         <v>0.1</v>
@@ -4001,16 +4406,22 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="46" spans="4:9">
+      <c r="M45" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="C46" t="s">
+        <v>187</v>
+      </c>
       <c r="D46" s="33" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F46" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="G46" s="78">
         <v>814.85714285714289</v>
@@ -4022,8 +4433,14 @@
         <f t="shared" si="0"/>
         <v>1589.5714285714284</v>
       </c>
-    </row>
-    <row r="47" spans="4:9">
+      <c r="L46" t="s">
+        <v>187</v>
+      </c>
+      <c r="M46" s="87">
+        <v>43371</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13">
       <c r="D47" s="33"/>
       <c r="E47" s="31"/>
     </row>

--- a/yong/미세먼지 측정소별 교통량.xlsx
+++ b/yong/미세먼지 측정소별 교통량.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="238">
   <si>
     <t>중구(서소문동)</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>서울 관악구 신림동길 14 신림동 주민센터</t>
-  </si>
-  <si>
-    <t>서울 강남구 학동로 426 강남구청 별관 1동</t>
   </si>
   <si>
     <t>서울 금천구 금하로21길 20 시흥5동 주민센터</t>
@@ -238,12 +235,6 @@
     <t>서울특별시 광진구 광나루로 571 구의 아리수정수센터</t>
   </si>
   <si>
-    <t>서울 성동구 뚝섬로3길 18 성수1가1동주민센터</t>
-  </si>
-  <si>
-    <t>서울 도봉구 시루봉로2길 34 쌍문동청소년문화의집</t>
-  </si>
-  <si>
     <t>서울 서대문구 세검정로4길 32(홍제3동 주민센터)</t>
   </si>
   <si>
@@ -257,9 +248,6 @@
   </si>
   <si>
     <t>서울 송파구 백제고분로 236 삼전동 주민센터 (삼전동)</t>
-  </si>
-  <si>
-    <t>서울 양천구 중앙로52길 56 신정4동 문화센터</t>
   </si>
   <si>
     <t>서울 노원구 상계로 118 상계2동 주민센터 (23길 17 노원구 원터행복발전소)</t>
@@ -500,6 +488,325 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>도로명 주소</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>위도,경도</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.647935765744876, 127.01187220236272</t>
+  </si>
+  <si>
+    <t>37.60688349214419, 127.02730959871882</t>
+  </si>
+  <si>
+    <t>37.54013536620098, 127.00484900945126</t>
+  </si>
+  <si>
+    <t>37.547326306912424, 127.0925027718788</t>
+  </si>
+  <si>
+    <t>37.5423113021354, 127.04962112495528</t>
+  </si>
+  <si>
+    <t>37.65433144512964, 127.02898979796872</t>
+  </si>
+  <si>
+    <t>37.593848534171975, 126.9497296425027</t>
+  </si>
+  <si>
+    <t>37.498536161898954, 126.89011889796548</t>
+  </si>
+  <si>
+    <t>2008유입</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008유출</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009유입</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009유출</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.50471690704273, 126.9944439894718</t>
+  </si>
+  <si>
+    <t>37.54467067412767, 126.83542678964032</t>
+  </si>
+  <si>
+    <t>37.502913388659714, 127.09248351145995</t>
+  </si>
+  <si>
+    <t>송파구(삼전동)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.52597377493448, 126.85659566363469</t>
+  </si>
+  <si>
+    <t>37.65746672104241, 127.06786606733485</t>
+  </si>
+  <si>
+    <t>37.56443312218745, 126.97558359626409</t>
+  </si>
+  <si>
+    <t>37.57220345748283, 127.00495385379092</t>
+  </si>
+  <si>
+    <t>중랑구(면목동,면목본동)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.576212862940906, 127.02900783185828</t>
+  </si>
+  <si>
+    <t>37.61024096430022, 126.93501987097886</t>
+  </si>
+  <si>
+    <t>37.5557689933435, 126.90553874029628</t>
+  </si>
+  <si>
+    <t>37.526556698351726, 126.89621308262517</t>
+  </si>
+  <si>
+    <t>37.48108073042589, 126.97156571145956</t>
+  </si>
+  <si>
+    <t>37.48755048313737, 126.9270590826245</t>
+  </si>
+  <si>
+    <t>37.51784843045876, 127.04792118262502</t>
+  </si>
+  <si>
+    <t>강남구(삼성2동)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.452598227169595, 126.90823726702105</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>금천구(시흥5동)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.54518033197455, 127.13677726913122</t>
+  </si>
+  <si>
+    <t>강동구(천호1동)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>미세먼지 측정소 명</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남대로</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>강변북로</t>
+  </si>
+  <si>
+    <t>서초구 강남대로 201(서초구민회관 앞 중앙차로)</t>
+  </si>
+  <si>
+    <t>성동구 강변북로 257 (한강사업본부 옆)</t>
+  </si>
+  <si>
+    <t>공항대로</t>
+  </si>
+  <si>
+    <t>강서구 공항대로 271(마곡역 버스중앙차로정류장) (최초설치2010년)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>도산대로</t>
+  </si>
+  <si>
+    <t>동작대로</t>
+  </si>
+  <si>
+    <t>시흥대로</t>
+  </si>
+  <si>
+    <t>신촌로</t>
+  </si>
+  <si>
+    <t>영등포로</t>
+  </si>
+  <si>
+    <t>정릉로</t>
+  </si>
+  <si>
+    <t>종로</t>
+  </si>
+  <si>
+    <t>천호대로</t>
+  </si>
+  <si>
+    <t>청계천로</t>
+  </si>
+  <si>
+    <t>한강대로</t>
+  </si>
+  <si>
+    <t>화랑로</t>
+  </si>
+  <si>
+    <t>강남구 도산대로 104 (신사역2번출구 앞)</t>
+  </si>
+  <si>
+    <t>동작구 동작대로 144 (이수역 북단 버스중앙차로)</t>
+  </si>
+  <si>
+    <t>마포구 노고산동 57-62 (신촌역 7번 출구)</t>
+  </si>
+  <si>
+    <t>성북구 돈암동 8-164(내부순환로 길음램프 출구) (최초설치 2010)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>종로구 종로 169(종묘4공원 앞)</t>
+  </si>
+  <si>
+    <t>강동구 천호대로 1151(길동사거리)</t>
+  </si>
+  <si>
+    <t>중구 청계천로 184(청계천4가사거리 남강빌딩 앞)</t>
+  </si>
+  <si>
+    <t>노원구 화랑로 429 (태릉입구역 8번 출구)</t>
+  </si>
+  <si>
+    <t>관악산</t>
+  </si>
+  <si>
+    <t>과천시 자하동길 64 (관악산 중계소)</t>
+  </si>
+  <si>
+    <t>궁동</t>
+  </si>
+  <si>
+    <t>구로구 부일로17길 158-4 (궁동데이케어센터)</t>
+  </si>
+  <si>
+    <t>남산</t>
+  </si>
+  <si>
+    <t>용산구 남산공원길 103 (서울타워 별관 2층)</t>
+  </si>
+  <si>
+    <t>북한산</t>
+  </si>
+  <si>
+    <t>세곡</t>
+  </si>
+  <si>
+    <t>강남구 밤고개로 337 (세곡사거리)</t>
+  </si>
+  <si>
+    <t>37.539005971269816, 127.0416341557477</t>
+  </si>
+  <si>
+    <t>37.56206562211492, 126.82688507442488</t>
+  </si>
+  <si>
+    <t>37.51650543253519, 127.02021182327523</t>
+  </si>
+  <si>
+    <t>37.4866075437991, 126.98188035577397</t>
+  </si>
+  <si>
+    <t>금천구 독산동 996-9</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.4751430594987, 126.89863191161255</t>
+  </si>
+  <si>
+    <t>37.55605397290101, 126.93701771757537</t>
+  </si>
+  <si>
+    <t>37.519380225164824, 126.904628812047</t>
+  </si>
+  <si>
+    <t>37.603742627331705, 127.02599833223333</t>
+  </si>
+  <si>
+    <t>37.57152389455453, 126.99567214638721</t>
+  </si>
+  <si>
+    <t>37.53414847626643, 127.13931602870262</t>
+  </si>
+  <si>
+    <t>37.56883178559789, 126.99808236743618</t>
+  </si>
+  <si>
+    <t>37.549277133542354, 126.97043361161408</t>
+  </si>
+  <si>
+    <t>37.61781726545141, 127.07509573960363</t>
+  </si>
+  <si>
+    <t>37.44331470968937, 126.9671007388262</t>
+  </si>
+  <si>
+    <t>37.49868518238417, 126.83032172880517</t>
+  </si>
+  <si>
+    <t>37.551339498038715, 126.98828024229921</t>
+  </si>
+  <si>
+    <t>37.679247431630145, 127.00235103320048</t>
+  </si>
+  <si>
+    <t>37.46425750759732, 127.10890988277653</t>
+  </si>
+  <si>
+    <t>2008합</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>강북구 삼양로 181길 387 (우이령 전경대 위)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.58510354165147, 127.09396925384974</t>
+  </si>
+  <si>
+    <t>양화대교</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>여의2교(파천교)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙성대역</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>문성터널 24번</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합운동장(올림픽로) 88번</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>천호대교 27번</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -527,7 +834,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>마포구</t>
+      <t>강북구</t>
     </r>
     <r>
       <rPr>
@@ -546,7 +853,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>포은로</t>
+      <t>삼양로</t>
     </r>
     <r>
       <rPr>
@@ -555,7 +862,7 @@
         <rFont val="Notokr-regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 6</t>
+      <t xml:space="preserve"> 139</t>
     </r>
     <r>
       <rPr>
@@ -574,7 +881,7 @@
         <rFont val="Notokr-regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 10 </t>
+      <t xml:space="preserve"> 49 </t>
     </r>
     <r>
       <rPr>
@@ -584,7 +891,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>망원</t>
+      <t>우이동</t>
     </r>
     <r>
       <rPr>
@@ -593,7 +900,7 @@
         <rFont val="Notokr-regular"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -603,17 +910,219 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>동주민센터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4A4A4A"/>
-        <rFont val="Notokr-regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+      <t>주민센터</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>창동전화국 91</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>상월파출소 85</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>남산1호터널 26</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 잠실대교북단 30</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>미미예식장,구기터널 93</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>시흥 i.c 45</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>반포대교 36</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>화곡터널 104</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>장지&lt;-&gt;분당수도권고속도로  101</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>영등포로(오목교) 89</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일로시계 80</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.48195921030677, 127.0359451956356</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남대로</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>성수대교</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>오쇠리시계 57 (공항대로)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남대로(신사역)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>남태령고개 68</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>시흥ic 45</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>영등포구 영중로 37(영등포사거리 하나은행 앞)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>경인로(서울교)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>동소문로길(길음교사거리)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>종로3가 46</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>천호대교 27번</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>용산구 한강대로 405(서울역 앞)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>한강대교</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼육대입구 화랑로 79</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류ic 44</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>남산2호터널 18</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤고개로 or 헌릉로70</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>서소문(삼성건설 앞) 5</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>양화대교 42</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>여의2교(파천교) 96</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015양방</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>중랑교 83</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>구기터널 21</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>경인로(서울교남단) 97</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>총신대입구 100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스코사거리 87</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>미미예식장 93</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>고속버스터미널 99</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>총신대입구 100, 동작대로</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통측정소 명(2008~)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016양방</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통측정소 명(~2015)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통측정소명(2016~</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>서소문(시청역) a-16</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017양방</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>종로3가 a-15</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>동부간선도로 f-05 (중랑천)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴계로입구 8</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>종로(동묘앞역) a-08</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>진흥로(구기터널) d-01</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -622,391 +1131,17 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>옥상</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>도로명 주소</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>위도,경도</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.647935765744876, 127.01187220236272</t>
-  </si>
-  <si>
-    <t>37.60688349214419, 127.02730959871882</t>
-  </si>
-  <si>
-    <t>37.54013536620098, 127.00484900945126</t>
-  </si>
-  <si>
-    <t>37.547326306912424, 127.0925027718788</t>
-  </si>
-  <si>
-    <t>37.5423113021354, 127.04962112495528</t>
-  </si>
-  <si>
-    <t>37.65433144512964, 127.02898979796872</t>
-  </si>
-  <si>
-    <t>37.593848534171975, 126.9497296425027</t>
-  </si>
-  <si>
-    <t>37.498536161898954, 126.89011889796548</t>
-  </si>
-  <si>
-    <t>2008유입</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2008유출</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009유입</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009유출</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016유입</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016유출</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017유입</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017유출</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018유입</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018유출</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019유입</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019유출</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020유입</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020유출</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.50471690704273, 126.9944439894718</t>
-  </si>
-  <si>
-    <t>37.54467067412767, 126.83542678964032</t>
-  </si>
-  <si>
-    <t>37.502913388659714, 127.09248351145995</t>
-  </si>
-  <si>
-    <t>송파구(삼전동)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.52597377493448, 126.85659566363469</t>
-  </si>
-  <si>
-    <t>37.65746672104241, 127.06786606733485</t>
-  </si>
-  <si>
-    <t>37.56443312218745, 126.97558359626409</t>
-  </si>
-  <si>
-    <t>37.57220345748283, 127.00495385379092</t>
-  </si>
-  <si>
-    <t>중랑구(면목동,면목본동)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.576212862940906, 127.02900783185828</t>
-  </si>
-  <si>
-    <t>37.61024096430022, 126.93501987097886</t>
-  </si>
-  <si>
-    <t>37.5557689933435, 126.90553874029628</t>
-  </si>
-  <si>
-    <t>37.526556698351726, 126.89621308262517</t>
-  </si>
-  <si>
-    <t>37.48108073042589, 126.97156571145956</t>
-  </si>
-  <si>
-    <t>37.48755048313737, 126.9270590826245</t>
-  </si>
-  <si>
-    <t>37.51784843045876, 127.04792118262502</t>
-  </si>
-  <si>
-    <t>강남구(삼성2동)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.452598227169595, 126.90823726702105</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>금천구(시흥5동)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.54518033197455, 127.13677726913122</t>
-  </si>
-  <si>
-    <t>강동구(천호1동)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>미세먼지 측정소 명</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>강남대로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>강변북로</t>
-  </si>
-  <si>
-    <t>서초구 강남대로 201(서초구민회관 앞 중앙차로)</t>
-  </si>
-  <si>
-    <t>성동구 강변북로 257 (한강사업본부 옆)</t>
-  </si>
-  <si>
-    <t>공항대로</t>
-  </si>
-  <si>
-    <t>강서구 공항대로 271(마곡역 버스중앙차로정류장) (최초설치2010년)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>도산대로</t>
-  </si>
-  <si>
-    <t>동작대로</t>
-  </si>
-  <si>
-    <t>시흥대로</t>
-  </si>
-  <si>
-    <t>신촌로</t>
-  </si>
-  <si>
-    <t>영등포로</t>
-  </si>
-  <si>
-    <t>정릉로</t>
-  </si>
-  <si>
-    <t>종로</t>
-  </si>
-  <si>
-    <t>천호대로</t>
-  </si>
-  <si>
-    <t>청계천로</t>
-  </si>
-  <si>
-    <t>한강대로</t>
-  </si>
-  <si>
-    <t>홍릉로</t>
-  </si>
-  <si>
-    <t>화랑로</t>
-  </si>
-  <si>
-    <t>강남구 도산대로 104 (신사역2번출구 앞)</t>
-  </si>
-  <si>
-    <t>동작구 동작대로 144 (이수역 북단 버스중앙차로)</t>
-  </si>
-  <si>
-    <t>마포구 노고산동 57-62 (신촌역 7번 출구)</t>
-  </si>
-  <si>
-    <t>성북구 돈암동 8-164(내부순환로 길음램프 출구) (최초설치 2010)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>종로구 종로 169(종묘4공원 앞)</t>
-  </si>
-  <si>
-    <t>강동구 천호대로 1151(길동사거리)</t>
-  </si>
-  <si>
-    <t>중구 청계천로 184(청계천4가사거리 남강빌딩 앞)</t>
-  </si>
-  <si>
-    <t>동대문구 홍릉로 1(청량리전철역 사거리)</t>
-  </si>
-  <si>
-    <t>노원구 화랑로 429 (태릉입구역 8번 출구)</t>
-  </si>
-  <si>
-    <t>관악산</t>
-  </si>
-  <si>
-    <t>과천시 자하동길 64 (관악산 중계소)</t>
-  </si>
-  <si>
-    <t>궁동</t>
-  </si>
-  <si>
-    <t>구로구 부일로17길 158-4 (궁동데이케어센터)</t>
-  </si>
-  <si>
-    <t>남산</t>
-  </si>
-  <si>
-    <t>용산구 남산공원길 103 (서울타워 별관 2층)</t>
-  </si>
-  <si>
-    <t>북한산</t>
-  </si>
-  <si>
-    <t>세곡</t>
-  </si>
-  <si>
-    <t>강남구 밤고개로 337 (세곡사거리)</t>
-  </si>
-  <si>
-    <t>37.539005971269816, 127.0416341557477</t>
-  </si>
-  <si>
-    <t>37.56206562211492, 126.82688507442488</t>
-  </si>
-  <si>
-    <t>37.51650543253519, 127.02021182327523</t>
-  </si>
-  <si>
-    <t>37.4866075437991, 126.98188035577397</t>
-  </si>
-  <si>
-    <t>금천구 독산동 996-9</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.4751430594987, 126.89863191161255</t>
-  </si>
-  <si>
-    <t>37.55605397290101, 126.93701771757537</t>
-  </si>
-  <si>
-    <t>37.519380225164824, 126.904628812047</t>
-  </si>
-  <si>
-    <t>37.603742627331705, 127.02599833223333</t>
-  </si>
-  <si>
-    <t>37.57152389455453, 126.99567214638721</t>
-  </si>
-  <si>
-    <t>37.53414847626643, 127.13931602870262</t>
-  </si>
-  <si>
-    <t>37.56883178559789, 126.99808236743618</t>
-  </si>
-  <si>
-    <t>37.549277133542354, 126.97043361161408</t>
-  </si>
-  <si>
-    <t>37.58053831772776, 127.04444305743175</t>
-  </si>
-  <si>
-    <t>37.61781726545141, 127.07509573960363</t>
-  </si>
-  <si>
-    <t>37.44331470968937, 126.9671007388262</t>
-  </si>
-  <si>
-    <t>37.49868518238417, 126.83032172880517</t>
-  </si>
-  <si>
-    <t>37.551339498038715, 126.98828024229921</t>
-  </si>
-  <si>
-    <t>37.679247431630145, 127.00235103320048</t>
-  </si>
-  <si>
-    <t>37.46425750759732, 127.10890988277653</t>
-  </si>
-  <si>
-    <t>2008합</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>강북구 삼양로 181길 387 (우이령 전경대 위)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.58510354165147, 127.09396925384974</t>
-  </si>
-  <si>
-    <t>서소문(삼성건설 앞)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>종로3가</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>퇴계로입구</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>양화대교</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>여의2교(파천교)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙성대역</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>문성터널 24번</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>종합운동장(올림픽로) 88번</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>천호대교 27번</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
+      <t>서울</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1015,7 +1150,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>서울</t>
+      <t>마포구</t>
     </r>
     <r>
       <rPr>
@@ -1034,7 +1169,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>강북구</t>
+      <t>포은로</t>
     </r>
     <r>
       <rPr>
@@ -1043,7 +1178,7 @@
         <rFont val="Notokr-regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> 6</t>
     </r>
     <r>
       <rPr>
@@ -1053,7 +1188,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>삼양로</t>
+      <t>길</t>
     </r>
     <r>
       <rPr>
@@ -1062,7 +1197,7 @@
         <rFont val="Notokr-regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 139</t>
+      <t xml:space="preserve"> 10 </t>
     </r>
     <r>
       <rPr>
@@ -1072,7 +1207,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>길</t>
+      <t>망원</t>
     </r>
     <r>
       <rPr>
@@ -1081,7 +1216,7 @@
         <rFont val="Notokr-regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 49 </t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1091,7 +1226,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>우이동</t>
+      <t>동주민센터</t>
     </r>
     <r>
       <rPr>
@@ -1110,92 +1245,148 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>주민센터</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>창동전화국 91</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>상월파출소 85</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>남산1호터널 26</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 잠실대교북단 30</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>미미예식장,구기터널 93</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>시흥 i.c 45</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>반포대교 36</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>화곡터널 104</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>장지&lt;-&gt;분당수도권고속도로  101</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>영등포로(오목교) 89</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>동일로시계 80</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.48195921030677, 127.0359451956356</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>강남대로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>성수대교</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>오쇠리시계 57 (공항대로)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>강남대로(신사역)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>남태령고개 68</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>시흥ic 45</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>영등포구 영중로 37(영등포사거리 하나은행 앞)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>경인로(서울교)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>동소문로길(길음교사거리)</t>
+      <t>옥상</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>양화대교 c-05</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작대로(총신대입구역) d-31</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>문성로(난곡터널) d-32</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서울</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강남구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학동로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 426 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강남구청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>테헤란로(선릉역) d-42</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>금하로(광명시계) b-25</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>천호대교 c-20</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>도봉로(쌍문역) d-11</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>서소문(삼성건설 앞) 5</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1203,99 +1394,482 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>천호대교 27번</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>용산구 한강대로 405(서울역 앞)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>한강대교</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼육대입구 화랑로 79</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>오류ic 44</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>남산2호터널 18</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤고개로 or 헌릉로70</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>서소문(삼성건설 앞) 5</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>퇴계로입구 8</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>양화대교 42</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>여의2교(파천교) 96</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015양방</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>중랑교 83</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>구기터널 21</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>경인로(서울교남단) 97</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>총신대입구 100</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>포스코사거리 87</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>미미예식장 93</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>고속버스터미널 99</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>수서ic 49</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>총신대입구 100, 동작대로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>교통측정소 명(2008~)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>교통측정소 명(2015~)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016양방</t>
+    <t xml:space="preserve">중랑교 83 </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>동소문로(길음교사거리) d-09</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>남산1호터널 a-20</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽대교 c-19</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서울</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성동구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뚝섬로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 18 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동주민센터</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>강변북로</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>강변북로 f-02</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서울</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도봉구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시루봉로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 34 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쌍문동청소년문화의집</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>통일로(산골고개정류장) d-15</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>사평대로(고속터미널역) d-36</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>시흥대로(구로디지털단지) d-26</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>수서ic 49 (분당수서로)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>분당수서로 f-07</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서울</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양천구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중앙로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 56 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Notokr-regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문화센터</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>영등포로(오목교) d-25</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>경부고속도로(양재IC) b-11</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>성수대교 c-15</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>오정로 b-26</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남대로(신사역) d-43</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020양방</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019양방</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018양방</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>시흥대로(시흥ic) d-24</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>성산로(연희ic) d-17</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>성산로(연희ic) d-16</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>경인로(서울교) d-28</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>종로(종로3가역) a-15</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>한강대교 c-09</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>화랑로(화랑대역) d-10</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>관악산</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>경인로(유한공고) d-22</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>북한산</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>남산2호터널 a-21</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>제물포길(여의2교) d-27</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>강서로(화곡터널) d-20</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일로(노원역) d-13</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>헌릉로(세곡동사거리) d-40</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1303,8 +1877,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="###,###"/>
   </numFmts>
   <fonts count="28">
@@ -2256,7 +2831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2458,12 +3033,6 @@
     <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="24" fillId="0" borderId="0" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2540,6 +3109,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="26" fillId="0" borderId="11" xfId="125" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2975,10 +3547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:X47"/>
+  <dimension ref="C1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2987,90 +3559,77 @@
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.875" customWidth="1"/>
+    <col min="14" max="14" width="25.75" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:24">
+    <row r="1" spans="3:19">
       <c r="C1" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="M1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="N1" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="O1" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="P1" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="Q1" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="R1" t="s">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="S1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V1" t="s">
-        <v>65</v>
-      </c>
-      <c r="W1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="2" spans="3:24">
+    <row r="2" spans="3:19">
       <c r="C2" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G2" s="4">
         <v>1710.8</v>
@@ -3078,9 +3637,9 @@
       <c r="H2" s="2">
         <v>1019.1428571428571</v>
       </c>
-      <c r="I2" s="34">
-        <f>SUM(G2,H2)</f>
-        <v>2729.9428571428571</v>
+      <c r="I2" s="93">
+        <f>SUM(G2,H2)*24</f>
+        <v>65518.62857142857</v>
       </c>
       <c r="J2">
         <v>1548</v>
@@ -3089,25 +3648,42 @@
         <v>751</v>
       </c>
       <c r="L2" t="s">
-        <v>188</v>
-      </c>
-      <c r="M2" s="87">
+        <v>167</v>
+      </c>
+      <c r="M2" s="85">
         <v>54444</v>
       </c>
-      <c r="N2" s="87"/>
+      <c r="N2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O2" s="85">
+        <v>55553</v>
+      </c>
+      <c r="P2" s="85">
+        <v>53835</v>
+      </c>
+      <c r="Q2" s="85">
+        <v>51168</v>
+      </c>
+      <c r="R2" s="85">
+        <v>49602</v>
+      </c>
+      <c r="S2" s="85">
+        <v>46063</v>
+      </c>
     </row>
-    <row r="3" spans="3:24">
+    <row r="3" spans="3:19">
       <c r="C3" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G3" s="7">
         <v>1643.2857142857142</v>
@@ -3116,7 +3692,7 @@
         <v>1607.7142857142858</v>
       </c>
       <c r="I3" s="34">
-        <f t="shared" ref="I3:I46" si="0">SUM(G3,H3)</f>
+        <f t="shared" ref="I3:I45" si="0">SUM(G3,H3)</f>
         <v>3251</v>
       </c>
       <c r="J3">
@@ -3126,21 +3702,42 @@
         <v>1582</v>
       </c>
       <c r="L3" t="s">
-        <v>180</v>
-      </c>
-      <c r="M3" s="87">
+        <v>159</v>
+      </c>
+      <c r="M3" s="85">
         <v>70234</v>
       </c>
+      <c r="N3" t="s">
+        <v>185</v>
+      </c>
+      <c r="O3" s="85">
+        <v>73397</v>
+      </c>
+      <c r="P3" s="85">
+        <v>69223</v>
+      </c>
+      <c r="Q3" s="85">
+        <v>46469</v>
+      </c>
+      <c r="R3" s="85">
+        <v>46327</v>
+      </c>
+      <c r="S3" s="85">
+        <v>42628</v>
+      </c>
     </row>
-    <row r="4" spans="3:24">
+    <row r="4" spans="3:19">
+      <c r="C4" t="s">
+        <v>201</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
@@ -3149,15 +3746,33 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>193</v>
-      </c>
-      <c r="M4" s="87">
+        <v>171</v>
+      </c>
+      <c r="M4" s="85">
         <v>159656</v>
       </c>
+      <c r="N4" t="s">
+        <v>186</v>
+      </c>
+      <c r="O4" s="85">
+        <v>150919</v>
+      </c>
+      <c r="P4" s="85">
+        <v>146317</v>
+      </c>
+      <c r="Q4" s="85">
+        <v>142332</v>
+      </c>
+      <c r="R4" s="85">
+        <v>143081</v>
+      </c>
+      <c r="S4" s="85">
+        <v>137834</v>
+      </c>
     </row>
-    <row r="5" spans="3:24">
+    <row r="5" spans="3:19">
       <c r="C5" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -3166,7 +3781,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G5" s="9">
         <v>1282.8571428571429</v>
@@ -3185,15 +3800,33 @@
         <v>1395</v>
       </c>
       <c r="L5" t="s">
-        <v>189</v>
-      </c>
-      <c r="M5" s="87">
-        <v>59469</v>
+        <v>187</v>
+      </c>
+      <c r="M5" s="85">
+        <v>60936</v>
+      </c>
+      <c r="N5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O5" s="85">
+        <v>64337</v>
+      </c>
+      <c r="P5" s="85">
+        <v>56616</v>
+      </c>
+      <c r="Q5" s="85">
+        <v>53223</v>
+      </c>
+      <c r="R5" s="85">
+        <v>53583</v>
+      </c>
+      <c r="S5" s="85">
+        <v>52449</v>
       </c>
     </row>
-    <row r="6" spans="3:24">
+    <row r="6" spans="3:19">
       <c r="C6" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
@@ -3202,7 +3835,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G6" s="11">
         <v>1118</v>
@@ -3217,33 +3850,51 @@
       <c r="J6">
         <v>1926</v>
       </c>
-      <c r="K6" s="71">
+      <c r="K6" s="69">
         <v>1952</v>
       </c>
       <c r="L6" t="s">
-        <v>194</v>
-      </c>
-      <c r="M6" s="87">
+        <v>172</v>
+      </c>
+      <c r="M6" s="85">
         <v>46836</v>
       </c>
+      <c r="N6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O6" s="85">
+        <v>46726</v>
+      </c>
+      <c r="P6" s="85">
+        <v>46352</v>
+      </c>
+      <c r="Q6" s="85">
+        <v>46704</v>
+      </c>
+      <c r="R6" s="85">
+        <v>45876</v>
+      </c>
+      <c r="S6" s="85">
+        <v>43895</v>
+      </c>
     </row>
-    <row r="7" spans="3:24">
+    <row r="7" spans="3:19">
       <c r="C7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="79">
+        <v>64</v>
+      </c>
+      <c r="G7" s="77">
         <v>2827.5714285714284</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="78">
         <v>2693.2857142857142</v>
       </c>
       <c r="I7" s="34">
@@ -3253,19 +3904,37 @@
       <c r="J7">
         <v>2840</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="69">
         <v>2765</v>
       </c>
       <c r="L7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M7" s="87">
+        <v>168</v>
+      </c>
+      <c r="M7" s="85">
         <v>135991</v>
       </c>
+      <c r="N7" t="s">
+        <v>191</v>
+      </c>
+      <c r="O7" s="85">
+        <v>141548</v>
+      </c>
+      <c r="P7" s="85">
+        <v>146329</v>
+      </c>
+      <c r="Q7" s="85">
+        <v>149152</v>
+      </c>
+      <c r="R7" s="85">
+        <v>142617</v>
+      </c>
+      <c r="S7" s="85">
+        <v>142394</v>
+      </c>
     </row>
-    <row r="8" spans="3:24">
+    <row r="8" spans="3:19">
       <c r="C8" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
@@ -3274,7 +3943,7 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G8" s="13">
         <v>1543.8571428571429</v>
@@ -3289,19 +3958,34 @@
       <c r="J8" s="53">
         <v>1537</v>
       </c>
-      <c r="K8" s="71">
+      <c r="K8" s="69">
         <v>1634</v>
       </c>
       <c r="L8" t="s">
-        <v>191</v>
-      </c>
-      <c r="M8" s="87">
-        <v>97458</v>
+        <v>169</v>
+      </c>
+      <c r="M8" s="85">
+        <v>114579</v>
+      </c>
+      <c r="N8" t="s">
+        <v>234</v>
+      </c>
+      <c r="P8" s="85">
+        <v>87205</v>
+      </c>
+      <c r="Q8" s="85">
+        <v>66191</v>
+      </c>
+      <c r="R8" s="85">
+        <v>65726</v>
+      </c>
+      <c r="S8" s="85">
+        <v>58539</v>
       </c>
     </row>
-    <row r="9" spans="3:24">
+    <row r="9" spans="3:19">
       <c r="C9" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
@@ -3310,7 +3994,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G9" s="15">
         <v>2823.7142857142858</v>
@@ -3325,19 +4009,37 @@
       <c r="J9">
         <v>2682</v>
       </c>
-      <c r="K9" s="71">
+      <c r="K9" s="69">
         <v>2856</v>
       </c>
       <c r="L9" t="s">
-        <v>196</v>
-      </c>
-      <c r="M9" s="87">
+        <v>174</v>
+      </c>
+      <c r="M9" s="85">
         <v>84463</v>
       </c>
+      <c r="N9" t="s">
+        <v>192</v>
+      </c>
+      <c r="O9" s="85">
+        <v>103001</v>
+      </c>
+      <c r="P9" s="85">
+        <v>114621</v>
+      </c>
+      <c r="Q9" s="85">
+        <v>91084</v>
+      </c>
+      <c r="R9" s="85">
+        <v>89433</v>
+      </c>
+      <c r="S9" s="85">
+        <v>84243</v>
+      </c>
     </row>
-    <row r="10" spans="3:24">
+    <row r="10" spans="3:19">
       <c r="C10" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
@@ -3346,7 +4048,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G10" s="17">
         <v>417.14285714285717</v>
@@ -3361,28 +4063,46 @@
       <c r="J10">
         <v>428</v>
       </c>
-      <c r="K10" s="71">
+      <c r="K10" s="69">
         <v>437</v>
       </c>
       <c r="L10" t="s">
-        <v>155</v>
-      </c>
-      <c r="M10" s="87">
+        <v>134</v>
+      </c>
+      <c r="M10" s="85">
         <v>20779</v>
       </c>
+      <c r="N10" t="s">
+        <v>193</v>
+      </c>
+      <c r="O10" s="85">
+        <v>19310</v>
+      </c>
+      <c r="P10" s="85">
+        <v>19627</v>
+      </c>
+      <c r="Q10" s="85">
+        <v>18411</v>
+      </c>
+      <c r="R10" s="85">
+        <v>17197</v>
+      </c>
+      <c r="S10" s="85">
+        <v>16389</v>
+      </c>
     </row>
-    <row r="11" spans="3:24">
+    <row r="11" spans="3:19">
       <c r="C11" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G11" s="19">
         <v>1716.7142857142858</v>
@@ -3397,44 +4117,80 @@
       <c r="J11">
         <v>1414</v>
       </c>
-      <c r="K11" s="71">
+      <c r="K11" s="69">
         <v>1485</v>
       </c>
       <c r="L11" t="s">
-        <v>197</v>
-      </c>
-      <c r="M11" s="87">
+        <v>175</v>
+      </c>
+      <c r="M11" s="85">
         <v>91286</v>
       </c>
+      <c r="N11" t="s">
+        <v>195</v>
+      </c>
+      <c r="O11" s="85">
+        <v>84746</v>
+      </c>
+      <c r="P11" s="85">
+        <v>82727</v>
+      </c>
+      <c r="Q11" s="85">
+        <v>75537</v>
+      </c>
+      <c r="R11" s="85">
+        <v>73987</v>
+      </c>
+      <c r="S11" s="85">
+        <v>68434</v>
+      </c>
     </row>
-    <row r="12" spans="3:24">
+    <row r="12" spans="3:19">
       <c r="D12" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I12" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="87"/>
+      <c r="M12" s="85"/>
+      <c r="N12" t="s">
+        <v>196</v>
+      </c>
+      <c r="O12" s="85">
+        <v>41467</v>
+      </c>
+      <c r="P12" s="85">
+        <v>34162</v>
+      </c>
+      <c r="Q12" s="85">
+        <v>34356</v>
+      </c>
+      <c r="R12" s="85">
+        <v>34147</v>
+      </c>
+      <c r="S12" s="85">
+        <v>31826</v>
+      </c>
     </row>
-    <row r="13" spans="3:24">
+    <row r="13" spans="3:19">
       <c r="C13" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G13" s="21">
         <v>2149.8571428571427</v>
@@ -3449,28 +4205,46 @@
       <c r="J13">
         <v>2472</v>
       </c>
-      <c r="K13" s="71">
+      <c r="K13" s="69">
         <v>1745</v>
       </c>
       <c r="L13" t="s">
-        <v>157</v>
-      </c>
-      <c r="M13" s="87">
-        <v>85560</v>
+        <v>136</v>
+      </c>
+      <c r="M13" s="85">
+        <v>93392</v>
+      </c>
+      <c r="N13" t="s">
+        <v>197</v>
+      </c>
+      <c r="O13" s="85">
+        <v>90244</v>
+      </c>
+      <c r="P13" s="85">
+        <v>91174</v>
+      </c>
+      <c r="Q13" s="85">
+        <v>83197</v>
+      </c>
+      <c r="R13" s="85">
+        <v>83221</v>
+      </c>
+      <c r="S13" s="85">
+        <v>69362</v>
       </c>
     </row>
-    <row r="14" spans="3:24">
+    <row r="14" spans="3:19">
       <c r="C14" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G14" s="23">
         <v>1109.5714285714287</v>
@@ -3483,26 +4257,44 @@
         <v>2432.4285714285716</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>138</v>
+      </c>
+      <c r="N14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O14" s="85">
+        <v>52021</v>
+      </c>
+      <c r="P14" s="85">
+        <v>53892</v>
+      </c>
+      <c r="Q14" s="85">
+        <v>47962</v>
+      </c>
+      <c r="R14" s="85">
+        <v>46769</v>
+      </c>
+      <c r="S14" s="85">
+        <v>44897</v>
       </c>
     </row>
-    <row r="15" spans="3:24">
+    <row r="15" spans="3:19">
       <c r="C15" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="81">
+        <v>42</v>
+      </c>
+      <c r="G15" s="79">
         <v>1866.1428571428571</v>
       </c>
-      <c r="H15" s="82">
+      <c r="H15" s="80">
         <v>1745.4285714285713</v>
       </c>
       <c r="I15" s="34">
@@ -3516,24 +4308,42 @@
         <v>1711</v>
       </c>
       <c r="L15" t="s">
-        <v>160</v>
-      </c>
-      <c r="M15" s="87">
+        <v>139</v>
+      </c>
+      <c r="M15" s="85">
         <v>63133</v>
       </c>
+      <c r="N15" t="s">
+        <v>202</v>
+      </c>
+      <c r="O15" s="85">
+        <v>64003</v>
+      </c>
+      <c r="P15" s="85">
+        <v>61797</v>
+      </c>
+      <c r="Q15" s="85">
+        <v>59831</v>
+      </c>
+      <c r="R15" s="85">
+        <v>60188</v>
+      </c>
+      <c r="S15" s="85">
+        <v>57141</v>
+      </c>
     </row>
-    <row r="16" spans="3:24">
+    <row r="16" spans="3:19">
       <c r="C16" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G16" s="25">
         <v>1417</v>
@@ -3546,24 +4356,42 @@
         <v>2999.8571428571431</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
-      </c>
-      <c r="M16" s="87">
-        <v>71537</v>
+        <v>140</v>
+      </c>
+      <c r="M16" s="85">
+        <v>73918</v>
+      </c>
+      <c r="N16" t="s">
+        <v>203</v>
+      </c>
+      <c r="O16" s="85">
+        <v>73876</v>
+      </c>
+      <c r="P16" s="85">
+        <v>70399</v>
+      </c>
+      <c r="Q16" s="85">
+        <v>69174</v>
+      </c>
+      <c r="R16" s="85">
+        <v>70070</v>
+      </c>
+      <c r="S16" s="85">
+        <v>63920</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="3:19">
       <c r="C17" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G17" s="27">
         <v>1896.4285714285713</v>
@@ -3582,21 +4410,39 @@
         <v>1306</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
-      </c>
-      <c r="M17" s="87">
-        <v>75812</v>
+        <v>141</v>
+      </c>
+      <c r="M17" s="85">
+        <v>72910</v>
+      </c>
+      <c r="N17" t="s">
+        <v>204</v>
+      </c>
+      <c r="O17" s="85">
+        <v>69530</v>
+      </c>
+      <c r="P17" s="85">
+        <v>70678</v>
+      </c>
+      <c r="Q17" s="85">
+        <v>67865</v>
+      </c>
+      <c r="R17" s="85">
+        <v>68804</v>
+      </c>
+      <c r="S17" s="85">
+        <v>68782</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
+    <row r="18" spans="3:19">
       <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30"/>
@@ -3604,19 +4450,43 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L18" t="s">
+        <v>206</v>
+      </c>
+      <c r="M18" s="85">
+        <v>257657</v>
+      </c>
+      <c r="N18" t="s">
+        <v>207</v>
+      </c>
+      <c r="O18" s="85">
+        <v>257720</v>
+      </c>
+      <c r="P18" s="85">
+        <v>251982</v>
+      </c>
+      <c r="Q18" s="85">
+        <v>245296</v>
+      </c>
+      <c r="R18" s="85">
+        <v>241143</v>
+      </c>
+      <c r="S18" s="85">
+        <v>230067</v>
+      </c>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="3:19">
       <c r="C19" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G19" s="35">
         <v>1109.5714285714287</v>
@@ -3629,21 +4499,39 @@
         <v>2432.4285714285716</v>
       </c>
       <c r="L19" t="s">
-        <v>159</v>
+        <v>138</v>
+      </c>
+      <c r="N19" t="s">
+        <v>198</v>
+      </c>
+      <c r="O19" s="85">
+        <v>52021</v>
+      </c>
+      <c r="P19" s="85">
+        <v>53892</v>
+      </c>
+      <c r="Q19" s="85">
+        <v>47962</v>
+      </c>
+      <c r="R19" s="85">
+        <v>46769</v>
+      </c>
+      <c r="S19" s="85">
+        <v>44897</v>
       </c>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="3:19">
       <c r="C20" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G20" s="38">
         <v>2015.8571428571429</v>
@@ -3658,28 +4546,46 @@
       <c r="J20">
         <v>1926</v>
       </c>
-      <c r="K20" s="71">
+      <c r="K20" s="69">
         <v>1952</v>
       </c>
       <c r="L20" t="s">
-        <v>198</v>
-      </c>
-      <c r="M20" s="87">
+        <v>176</v>
+      </c>
+      <c r="M20" s="85">
         <v>71918</v>
       </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" s="85">
+        <v>70112</v>
+      </c>
+      <c r="P20" s="85">
+        <v>66437</v>
+      </c>
+      <c r="Q20" s="85">
+        <v>67131</v>
+      </c>
+      <c r="R20" s="85">
+        <v>67917</v>
+      </c>
+      <c r="S20" s="85">
+        <v>66820</v>
+      </c>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="3:19">
       <c r="C21" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G21" s="40">
         <v>2074.4285714285702</v>
@@ -3692,24 +4598,39 @@
         <v>4326.142857142856</v>
       </c>
       <c r="L21" t="s">
-        <v>164</v>
-      </c>
-      <c r="M21" s="87">
+        <v>143</v>
+      </c>
+      <c r="M21" s="85">
         <v>73006</v>
       </c>
+      <c r="N21" t="s">
+        <v>211</v>
+      </c>
+      <c r="P21" s="85">
+        <v>83401</v>
+      </c>
+      <c r="Q21" s="85">
+        <v>79366</v>
+      </c>
+      <c r="R21" s="85">
+        <v>77602</v>
+      </c>
+      <c r="S21" s="85">
+        <v>72929</v>
+      </c>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="3:19">
       <c r="C22" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G22" s="42">
         <v>1654.1428571428571</v>
@@ -3728,60 +4649,96 @@
         <v>2199</v>
       </c>
       <c r="L22" t="s">
-        <v>199</v>
-      </c>
-      <c r="M22" s="87">
+        <v>177</v>
+      </c>
+      <c r="M22" s="85">
         <v>107837</v>
       </c>
+      <c r="N22" t="s">
+        <v>210</v>
+      </c>
+      <c r="O22" s="85">
+        <v>105208</v>
+      </c>
+      <c r="P22" s="85">
+        <v>97375</v>
+      </c>
+      <c r="Q22" s="85">
+        <v>92933</v>
+      </c>
+      <c r="R22" s="85">
+        <v>91268</v>
+      </c>
+      <c r="S22" s="85">
+        <v>86362</v>
+      </c>
     </row>
-    <row r="23" spans="3:13">
+    <row r="23" spans="3:19">
       <c r="C23" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="84">
+        <v>54</v>
+      </c>
+      <c r="G23" s="82">
         <v>1123.7142857142858</v>
       </c>
-      <c r="H23" s="83">
+      <c r="H23" s="81">
         <v>922.28571428571433</v>
       </c>
       <c r="I23" s="34">
         <f t="shared" si="0"/>
         <v>2046</v>
       </c>
-      <c r="J23" s="85">
+      <c r="J23" s="83">
         <v>1109</v>
       </c>
-      <c r="K23" s="86">
+      <c r="K23" s="84">
         <v>872</v>
       </c>
       <c r="L23" t="s">
-        <v>166</v>
-      </c>
-      <c r="M23" s="87">
+        <v>145</v>
+      </c>
+      <c r="M23" s="85">
         <v>43914</v>
       </c>
+      <c r="N23" t="s">
+        <v>235</v>
+      </c>
+      <c r="O23" s="85">
+        <v>43412</v>
+      </c>
+      <c r="P23" s="85">
+        <v>41244</v>
+      </c>
+      <c r="Q23" s="85">
+        <v>39923</v>
+      </c>
+      <c r="R23" s="85">
+        <v>39662</v>
+      </c>
+      <c r="S23" s="85">
+        <v>38216</v>
+      </c>
     </row>
-    <row r="24" spans="3:13">
+    <row r="24" spans="3:19">
       <c r="C24" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G24" s="44">
         <v>3252</v>
@@ -3800,24 +4757,42 @@
         <v>3439</v>
       </c>
       <c r="L24" t="s">
-        <v>200</v>
-      </c>
-      <c r="M24" s="87">
-        <v>81624</v>
+        <v>212</v>
+      </c>
+      <c r="M24" s="85">
+        <v>155907</v>
+      </c>
+      <c r="N24" t="s">
+        <v>213</v>
+      </c>
+      <c r="O24" s="85">
+        <v>154745</v>
+      </c>
+      <c r="P24" s="85">
+        <v>140932</v>
+      </c>
+      <c r="Q24" s="85">
+        <v>139487</v>
+      </c>
+      <c r="R24" s="85">
+        <v>138940</v>
+      </c>
+      <c r="S24" s="85">
+        <v>137139</v>
       </c>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" spans="3:19">
       <c r="C25" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G25" s="46">
         <v>1377.2857142857142</v>
@@ -3836,24 +4811,42 @@
         <v>1449</v>
       </c>
       <c r="L25" t="s">
-        <v>168</v>
-      </c>
-      <c r="M25" s="87">
+        <v>147</v>
+      </c>
+      <c r="M25" s="85">
         <v>65505</v>
       </c>
+      <c r="N25" t="s">
+        <v>215</v>
+      </c>
+      <c r="O25" s="85">
+        <v>66147</v>
+      </c>
+      <c r="P25" s="85">
+        <v>60743</v>
+      </c>
+      <c r="Q25" s="85">
+        <v>60525</v>
+      </c>
+      <c r="R25" s="85">
+        <v>60395</v>
+      </c>
+      <c r="S25" s="85">
+        <v>57983</v>
+      </c>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="3:19">
       <c r="C26" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G26" s="48">
         <v>1785.2857142857142</v>
@@ -3865,71 +4858,120 @@
         <f t="shared" si="0"/>
         <v>4272.8571428571431</v>
       </c>
-      <c r="L26" t="s">
-        <v>169</v>
-      </c>
-      <c r="M26" s="87">
-        <v>139393</v>
+      <c r="M26" s="85"/>
+      <c r="N26" t="s">
+        <v>236</v>
+      </c>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85">
+        <v>44916</v>
+      </c>
+      <c r="Q26" s="85">
+        <v>44400</v>
+      </c>
+      <c r="R26" s="85">
+        <v>42237</v>
+      </c>
+      <c r="S26" s="85">
+        <v>38770</v>
       </c>
     </row>
-    <row r="27" spans="3:13">
+    <row r="27" spans="3:19">
       <c r="C27" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="I27" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>171</v>
-      </c>
-      <c r="M27" s="87"/>
+        <v>150</v>
+      </c>
+      <c r="M27" s="85">
+        <v>232851</v>
+      </c>
+      <c r="N27" t="s">
+        <v>216</v>
+      </c>
+      <c r="O27" s="85">
+        <v>230081</v>
+      </c>
+      <c r="P27" s="85">
+        <v>192316</v>
+      </c>
+      <c r="Q27" s="85">
+        <v>192632</v>
+      </c>
+      <c r="R27" s="85">
+        <v>196830</v>
+      </c>
+      <c r="S27" s="85">
+        <v>187760</v>
+      </c>
     </row>
-    <row r="28" spans="3:13">
+    <row r="28" spans="3:19">
       <c r="C28" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="I28" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>172</v>
-      </c>
-      <c r="M28" s="87">
-        <v>90991</v>
+        <v>151</v>
+      </c>
+      <c r="M28" s="85">
+        <v>139449</v>
+      </c>
+      <c r="N28" t="s">
+        <v>217</v>
+      </c>
+      <c r="O28" s="85">
+        <v>137025</v>
+      </c>
+      <c r="P28" s="85">
+        <v>137607</v>
+      </c>
+      <c r="Q28" s="85">
+        <v>132669</v>
+      </c>
+      <c r="R28" s="85">
+        <v>137001</v>
+      </c>
+      <c r="S28" s="85">
+        <v>128113</v>
       </c>
     </row>
-    <row r="29" spans="3:13">
+    <row r="29" spans="3:19">
       <c r="C29" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="G29" s="50">
         <v>812</v>
@@ -3948,45 +4990,84 @@
         <v>966</v>
       </c>
       <c r="L29" t="s">
-        <v>173</v>
-      </c>
-      <c r="M29" s="87">
+        <v>152</v>
+      </c>
+      <c r="M29" s="85">
         <v>43368</v>
       </c>
+      <c r="N29" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" s="85">
+        <v>39875</v>
+      </c>
+      <c r="P29" s="85">
+        <v>26359</v>
+      </c>
+      <c r="Q29" s="85">
+        <v>26125</v>
+      </c>
+      <c r="R29" s="85">
+        <v>26221</v>
+      </c>
+      <c r="S29" s="85">
+        <v>23627</v>
+      </c>
     </row>
-    <row r="30" spans="3:13">
+    <row r="30" spans="3:19">
       <c r="C30" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="I30" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>174</v>
+        <v>153</v>
+      </c>
+      <c r="M30" s="85">
+        <v>112848</v>
+      </c>
+      <c r="N30" t="s">
+        <v>219</v>
+      </c>
+      <c r="O30" s="85">
+        <v>112226</v>
+      </c>
+      <c r="P30" s="85">
+        <v>102260</v>
+      </c>
+      <c r="Q30" s="85">
+        <v>76324</v>
+      </c>
+      <c r="R30" s="85">
+        <v>74310</v>
+      </c>
+      <c r="S30" s="85">
+        <v>69076</v>
       </c>
     </row>
-    <row r="31" spans="3:13">
+    <row r="31" spans="3:19">
       <c r="C31" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="G31" s="52">
         <v>1976.2857142857142</v>
@@ -3998,31 +5079,49 @@
         <f t="shared" si="0"/>
         <v>3881.4285714285716</v>
       </c>
-      <c r="J31" s="88">
+      <c r="J31" s="86">
         <v>1882</v>
       </c>
-      <c r="K31" s="89">
+      <c r="K31" s="87">
         <v>1841</v>
       </c>
       <c r="L31" t="s">
-        <v>201</v>
-      </c>
-      <c r="M31" s="87">
+        <v>178</v>
+      </c>
+      <c r="M31" s="85">
         <v>84463</v>
       </c>
+      <c r="N31" t="s">
+        <v>192</v>
+      </c>
+      <c r="O31" s="85">
+        <v>103001</v>
+      </c>
+      <c r="P31" s="85">
+        <v>114621</v>
+      </c>
+      <c r="Q31" s="85">
+        <v>91084</v>
+      </c>
+      <c r="R31" s="85">
+        <v>89433</v>
+      </c>
+      <c r="S31" s="85">
+        <v>84243</v>
+      </c>
     </row>
-    <row r="32" spans="3:13">
+    <row r="32" spans="3:19">
       <c r="C32" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G32" s="55">
         <v>2074.4285714285716</v>
@@ -4035,21 +5134,36 @@
         <v>4326.1428571428569</v>
       </c>
       <c r="L32" t="s">
-        <v>176</v>
-      </c>
-      <c r="M32" s="87">
+        <v>155</v>
+      </c>
+      <c r="M32" s="85">
         <v>73006</v>
       </c>
+      <c r="N32" t="s">
+        <v>223</v>
+      </c>
+      <c r="P32" s="85">
+        <v>88054</v>
+      </c>
+      <c r="Q32" s="85">
+        <v>85063</v>
+      </c>
+      <c r="R32" s="85">
+        <v>83254</v>
+      </c>
+      <c r="S32" s="85">
+        <v>79212</v>
+      </c>
     </row>
-    <row r="33" spans="3:13">
+    <row r="33" spans="3:19">
       <c r="D33" s="32" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G33" s="56"/>
       <c r="H33" s="57"/>
@@ -4057,19 +5171,43 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L33" t="s">
+        <v>224</v>
+      </c>
+      <c r="M33" s="85">
+        <v>88861</v>
+      </c>
+      <c r="N33" t="s">
+        <v>225</v>
+      </c>
+      <c r="O33" s="85">
+        <v>85283</v>
+      </c>
+      <c r="P33" s="85">
+        <v>83139</v>
+      </c>
+      <c r="Q33" s="85">
+        <v>81827</v>
+      </c>
+      <c r="R33" s="85">
+        <v>81920</v>
+      </c>
+      <c r="S33" s="85">
+        <v>75286</v>
+      </c>
     </row>
-    <row r="34" spans="3:13">
+    <row r="34" spans="3:19">
       <c r="C34" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G34" s="59">
         <v>1543.8571428571429</v>
@@ -4082,24 +5220,39 @@
         <v>3195.5714285714284</v>
       </c>
       <c r="L34" t="s">
-        <v>195</v>
-      </c>
-      <c r="M34" s="87">
+        <v>173</v>
+      </c>
+      <c r="M34" s="85">
         <v>73402</v>
       </c>
+      <c r="N34" t="s">
+        <v>226</v>
+      </c>
+      <c r="P34" s="85">
+        <v>95127</v>
+      </c>
+      <c r="Q34" s="85">
+        <v>94691</v>
+      </c>
+      <c r="R34" s="85">
+        <v>94686</v>
+      </c>
+      <c r="S34" s="85">
+        <v>89962</v>
+      </c>
     </row>
-    <row r="35" spans="3:13">
+    <row r="35" spans="3:19">
       <c r="C35" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="G35" s="61"/>
       <c r="H35" s="60"/>
@@ -4108,21 +5261,42 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>179</v>
+        <v>158</v>
+      </c>
+      <c r="M35" s="85">
+        <v>63133</v>
+      </c>
+      <c r="N35" t="s">
+        <v>202</v>
+      </c>
+      <c r="O35" s="85">
+        <v>64003</v>
+      </c>
+      <c r="P35" s="85">
+        <v>61797</v>
+      </c>
+      <c r="Q35" s="85">
+        <v>59831</v>
+      </c>
+      <c r="R35" s="85">
+        <v>60188</v>
+      </c>
+      <c r="S35" s="85">
+        <v>57141</v>
       </c>
     </row>
-    <row r="36" spans="3:13">
+    <row r="36" spans="3:19">
       <c r="C36" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G36" s="62">
         <v>1643.2857142857142</v>
@@ -4134,31 +5308,49 @@
         <f t="shared" si="0"/>
         <v>3251</v>
       </c>
-      <c r="J36" s="90">
+      <c r="J36" s="88">
         <v>1577</v>
       </c>
-      <c r="K36" s="91">
+      <c r="K36" s="89">
         <v>1582</v>
       </c>
       <c r="L36" t="s">
-        <v>180</v>
-      </c>
-      <c r="M36" s="87">
+        <v>159</v>
+      </c>
+      <c r="M36" s="85">
         <v>70234</v>
       </c>
+      <c r="N36" t="s">
+        <v>227</v>
+      </c>
+      <c r="O36" s="85">
+        <v>73397</v>
+      </c>
+      <c r="P36" s="85">
+        <v>69224</v>
+      </c>
+      <c r="Q36" s="85">
+        <v>46469</v>
+      </c>
+      <c r="R36" s="85">
+        <v>46327</v>
+      </c>
+      <c r="S36" s="85">
+        <v>42628</v>
+      </c>
     </row>
-    <row r="37" spans="3:13">
+    <row r="37" spans="3:19">
       <c r="C37" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F37" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G37" s="65">
         <v>2149.8571428571427</v>
@@ -4173,28 +5365,46 @@
       <c r="J37">
         <v>2472</v>
       </c>
-      <c r="K37" s="71">
+      <c r="K37" s="69">
         <v>1745</v>
       </c>
       <c r="L37" t="s">
-        <v>181</v>
-      </c>
-      <c r="M37" s="87">
-        <v>85560</v>
+        <v>160</v>
+      </c>
+      <c r="M37" s="85">
+        <v>93392</v>
+      </c>
+      <c r="N37" t="s">
+        <v>197</v>
+      </c>
+      <c r="O37" s="85">
+        <v>90244</v>
+      </c>
+      <c r="P37" s="85">
+        <v>91174</v>
+      </c>
+      <c r="Q37" s="85">
+        <v>83197</v>
+      </c>
+      <c r="R37" s="85">
+        <v>83221</v>
+      </c>
+      <c r="S37" s="85">
+        <v>69362</v>
       </c>
     </row>
-    <row r="38" spans="3:13">
+    <row r="38" spans="3:19">
       <c r="C38" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="G38" s="65">
         <v>1643.2857142857142</v>
@@ -4203,246 +5413,373 @@
         <v>1607.7142857142858</v>
       </c>
       <c r="I38" s="34">
-        <f t="shared" ref="I38" si="1">SUM(G38,H38)</f>
+        <f t="shared" si="0"/>
         <v>3251</v>
       </c>
-      <c r="J38" s="91">
+      <c r="J38" s="89">
         <v>1577</v>
       </c>
-      <c r="K38" s="91">
+      <c r="K38" s="89">
         <v>1582</v>
       </c>
       <c r="L38" t="s">
-        <v>180</v>
-      </c>
-      <c r="M38" s="87">
+        <v>159</v>
+      </c>
+      <c r="M38" s="85">
         <v>70234</v>
       </c>
+      <c r="N38" t="s">
+        <v>227</v>
+      </c>
+      <c r="O38" s="85">
+        <v>73397</v>
+      </c>
+      <c r="P38" s="85">
+        <v>69224</v>
+      </c>
+      <c r="Q38" s="85">
+        <v>46469</v>
+      </c>
+      <c r="R38" s="85">
+        <v>46327</v>
+      </c>
+      <c r="S38" s="85">
+        <v>42628</v>
+      </c>
     </row>
-    <row r="39" spans="3:13">
+    <row r="39" spans="3:19">
       <c r="C39" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="F39" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="I39" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>183</v>
-      </c>
-      <c r="M39" s="87">
-        <v>98621</v>
+        <v>162</v>
+      </c>
+      <c r="M39" s="85">
+        <v>104115</v>
+      </c>
+      <c r="N39" t="s">
+        <v>228</v>
+      </c>
+      <c r="O39" s="85">
+        <v>107910</v>
+      </c>
+      <c r="P39" s="85">
+        <v>107535</v>
+      </c>
+      <c r="Q39" s="85">
+        <v>96648</v>
+      </c>
+      <c r="R39" s="85">
+        <v>96420</v>
+      </c>
+      <c r="S39" s="85">
+        <v>93107</v>
       </c>
     </row>
-    <row r="40" spans="3:13">
+    <row r="40" spans="3:19">
+      <c r="C40" t="s">
+        <v>163</v>
+      </c>
       <c r="D40" s="33" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40" s="67"/>
-      <c r="H40" s="66"/>
+        <v>122</v>
+      </c>
+      <c r="G40" s="68">
+        <v>927.14285714285711</v>
+      </c>
+      <c r="H40" s="66">
+        <v>937.57142857142856</v>
+      </c>
       <c r="I40" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1864.7142857142858</v>
+      </c>
+      <c r="L40" t="s">
+        <v>163</v>
+      </c>
+      <c r="M40" s="85">
+        <v>78406</v>
+      </c>
+      <c r="N40" t="s">
+        <v>229</v>
+      </c>
+      <c r="O40" s="85">
+        <v>79671</v>
+      </c>
+      <c r="P40" s="85">
+        <v>82626</v>
+      </c>
+      <c r="Q40" s="85">
+        <v>68491</v>
+      </c>
+      <c r="R40" s="85">
+        <v>69384</v>
+      </c>
+      <c r="S40" s="85">
+        <v>67887</v>
       </c>
     </row>
-    <row r="41" spans="3:13">
-      <c r="C41" t="s">
-        <v>184</v>
-      </c>
+    <row r="41" spans="3:19">
       <c r="D41" s="33" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F41" t="s">
-        <v>140</v>
-      </c>
-      <c r="G41" s="70">
-        <v>927.14285714285711</v>
-      </c>
-      <c r="H41" s="68">
-        <v>937.57142857142856</v>
+        <v>123</v>
+      </c>
+      <c r="G41" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="H41" s="67">
+        <v>0.1</v>
       </c>
       <c r="I41" s="34">
         <f t="shared" si="0"/>
-        <v>1864.7142857142858</v>
-      </c>
-      <c r="L41" t="s">
-        <v>184</v>
-      </c>
-      <c r="M41" s="87">
-        <v>45881</v>
+        <v>0.2</v>
+      </c>
+      <c r="M41" s="85">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>230</v>
+      </c>
+      <c r="O41" s="85">
+        <v>0</v>
+      </c>
+      <c r="P41" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="85">
+        <v>0</v>
+      </c>
+      <c r="R41" s="85">
+        <v>0</v>
+      </c>
+      <c r="S41" s="85">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:13">
+    <row r="42" spans="3:19">
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
       <c r="D42" s="33" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F42" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="H42" s="69">
-        <v>0.1</v>
+        <v>124</v>
+      </c>
+      <c r="G42" s="70">
+        <v>1135.1428571428571</v>
+      </c>
+      <c r="H42" s="71">
+        <v>1348.8571428571429</v>
       </c>
       <c r="I42" s="34">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="M42" s="87">
-        <v>0</v>
+        <v>2484</v>
+      </c>
+      <c r="J42" s="90">
+        <v>1098</v>
+      </c>
+      <c r="K42" s="91">
+        <v>1367</v>
+      </c>
+      <c r="L42" t="s">
+        <v>164</v>
+      </c>
+      <c r="M42" s="85">
+        <v>55339</v>
+      </c>
+      <c r="N42" t="s">
+        <v>231</v>
+      </c>
+      <c r="O42" s="85">
+        <v>42143</v>
+      </c>
+      <c r="P42" s="85">
+        <v>40076</v>
+      </c>
+      <c r="Q42" s="85">
+        <v>50370</v>
+      </c>
+      <c r="R42" s="85">
+        <v>51205</v>
+      </c>
+      <c r="S42" s="85">
+        <v>47896</v>
       </c>
     </row>
-    <row r="43" spans="3:13">
+    <row r="43" spans="3:19">
       <c r="C43" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>142</v>
-      </c>
-      <c r="G43" s="72">
-        <v>1135.1428571428571</v>
-      </c>
-      <c r="H43" s="73">
-        <v>1348.8571428571429</v>
+        <v>125</v>
+      </c>
+      <c r="G43" s="74">
+        <v>495.14285714285717</v>
+      </c>
+      <c r="H43" s="72">
+        <v>469.28571428571428</v>
       </c>
       <c r="I43" s="34">
         <f t="shared" si="0"/>
-        <v>2484</v>
+        <v>964.42857142857144</v>
       </c>
       <c r="J43" s="92">
-        <v>1098</v>
-      </c>
-      <c r="K43" s="93">
-        <v>1367</v>
+        <v>521</v>
+      </c>
+      <c r="K43">
+        <v>276</v>
       </c>
       <c r="L43" t="s">
-        <v>185</v>
-      </c>
-      <c r="M43" s="87">
-        <v>55339</v>
+        <v>165</v>
+      </c>
+      <c r="M43" s="85">
+        <v>26515</v>
+      </c>
+      <c r="N43" t="s">
+        <v>233</v>
+      </c>
+      <c r="O43" s="85">
+        <v>27080</v>
+      </c>
+      <c r="P43" s="85">
+        <v>26487</v>
+      </c>
+      <c r="Q43" s="85">
+        <v>27261</v>
+      </c>
+      <c r="R43" s="85">
+        <v>26395</v>
+      </c>
+      <c r="S43" s="85">
+        <v>20999</v>
       </c>
     </row>
-    <row r="44" spans="3:13">
-      <c r="C44" t="s">
-        <v>186</v>
-      </c>
+    <row r="44" spans="3:19">
       <c r="D44" s="33" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" s="76">
-        <v>495.14285714285717</v>
-      </c>
-      <c r="H44" s="74">
-        <v>469.28571428571428</v>
+        <v>126</v>
+      </c>
+      <c r="G44" s="73">
+        <v>0.1</v>
+      </c>
+      <c r="H44" s="73">
+        <v>0.1</v>
       </c>
       <c r="I44" s="34">
         <f t="shared" si="0"/>
-        <v>964.42857142857144</v>
-      </c>
-      <c r="J44" s="94">
-        <v>521</v>
-      </c>
-      <c r="K44">
-        <v>276</v>
-      </c>
-      <c r="L44" t="s">
-        <v>186</v>
-      </c>
-      <c r="M44" s="87">
-        <v>27283</v>
+        <v>0.2</v>
+      </c>
+      <c r="M44" s="85">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>232</v>
+      </c>
+      <c r="O44" s="85">
+        <v>0</v>
+      </c>
+      <c r="P44" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="85">
+        <v>0</v>
+      </c>
+      <c r="R44" s="85">
+        <v>0</v>
+      </c>
+      <c r="S44" s="85">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:13">
+    <row r="45" spans="3:19">
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
       <c r="D45" s="33" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
-      </c>
-      <c r="G45" s="75">
-        <v>0.1</v>
+        <v>127</v>
+      </c>
+      <c r="G45" s="76">
+        <v>814.85714285714289</v>
       </c>
       <c r="H45" s="75">
-        <v>0.1</v>
+        <v>774.71428571428567</v>
       </c>
       <c r="I45" s="34">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="M45" s="87">
-        <v>0</v>
+        <v>1589.5714285714284</v>
+      </c>
+      <c r="L45" t="s">
+        <v>166</v>
+      </c>
+      <c r="M45" s="85">
+        <v>43371</v>
+      </c>
+      <c r="N45" t="s">
+        <v>237</v>
+      </c>
+      <c r="O45" s="85">
+        <v>67844</v>
+      </c>
+      <c r="P45" s="85">
+        <v>66462</v>
+      </c>
+      <c r="Q45" s="85">
+        <v>64100</v>
+      </c>
+      <c r="R45" s="85">
+        <v>64788</v>
+      </c>
+      <c r="S45" s="85">
+        <v>62667</v>
       </c>
     </row>
-    <row r="46" spans="3:13">
-      <c r="C46" t="s">
-        <v>187</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="F46" t="s">
-        <v>145</v>
-      </c>
-      <c r="G46" s="78">
-        <v>814.85714285714289</v>
-      </c>
-      <c r="H46" s="77">
-        <v>774.71428571428567</v>
-      </c>
-      <c r="I46" s="34">
-        <f t="shared" si="0"/>
-        <v>1589.5714285714284</v>
-      </c>
-      <c r="L46" t="s">
-        <v>187</v>
-      </c>
-      <c r="M46" s="87">
-        <v>43371</v>
-      </c>
-    </row>
-    <row r="47" spans="3:13">
-      <c r="D47" s="33"/>
-      <c r="E47" s="31"/>
+    <row r="46" spans="3:19">
+      <c r="D46" s="33"/>
+      <c r="E46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
